--- a/Code/Results/Cases/Case_0_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_line/loading_percent.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.057909438935613</v>
+        <v>6.057909438935627</v>
       </c>
       <c r="D2">
-        <v>3.017893592970335</v>
+        <v>3.017893592970317</v>
       </c>
       <c r="E2">
-        <v>5.375738006806027</v>
+        <v>5.375738006806078</v>
       </c>
       <c r="F2">
-        <v>37.56848305083281</v>
+        <v>37.56848305083262</v>
       </c>
       <c r="G2">
-        <v>29.15438006156975</v>
+        <v>29.1543800615696</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>61.49603040893967</v>
       </c>
       <c r="K2">
-        <v>6.513271184830777</v>
+        <v>6.513271184830828</v>
       </c>
       <c r="L2">
-        <v>39.27128330434084</v>
+        <v>39.27128330434081</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.629503812169784</v>
+        <v>5.629503812169786</v>
       </c>
       <c r="D3">
-        <v>2.561168375102815</v>
+        <v>2.561168375102884</v>
       </c>
       <c r="E3">
-        <v>5.387818430607559</v>
+        <v>5.387818430607652</v>
       </c>
       <c r="F3">
-        <v>34.31458253312728</v>
+        <v>34.31458253312736</v>
       </c>
       <c r="G3">
-        <v>26.52572864446143</v>
+        <v>26.5257286444615</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>56.97914168749545</v>
+        <v>56.97914168749551</v>
       </c>
       <c r="K3">
-        <v>6.330248980831032</v>
+        <v>6.330248980831096</v>
       </c>
       <c r="L3">
-        <v>36.3625340507621</v>
+        <v>36.36253405076212</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.379394913496832</v>
+        <v>5.379394913496836</v>
       </c>
       <c r="D4">
-        <v>2.288836521621155</v>
+        <v>2.288836521621003</v>
       </c>
       <c r="E4">
-        <v>5.403685850198004</v>
+        <v>5.403685850197964</v>
       </c>
       <c r="F4">
-        <v>32.34679001207542</v>
+        <v>32.34679001207529</v>
       </c>
       <c r="G4">
-        <v>24.93601146589425</v>
+        <v>24.93601146589413</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>54.09339356545825</v>
+        <v>54.09339356545819</v>
       </c>
       <c r="K4">
-        <v>6.218987568770712</v>
+        <v>6.218987568770741</v>
       </c>
       <c r="L4">
-        <v>34.50748849231187</v>
+        <v>34.5074884923118</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.278121114870942</v>
+        <v>5.278121114870933</v>
       </c>
       <c r="D5">
-        <v>2.208394385005792</v>
+        <v>2.208394385005906</v>
       </c>
       <c r="E5">
         <v>5.412097169073546</v>
       </c>
       <c r="F5">
-        <v>31.60386717350661</v>
+        <v>31.6038671735065</v>
       </c>
       <c r="G5">
-        <v>24.36531329806801</v>
+        <v>24.36531329806797</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>52.88744745601445</v>
+        <v>52.88744745601425</v>
       </c>
       <c r="K5">
-        <v>6.173916829262202</v>
+        <v>6.173916829262193</v>
       </c>
       <c r="L5">
-        <v>33.73299479631368</v>
+        <v>33.73299479631356</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.261341026743573</v>
+        <v>5.261341026743558</v>
       </c>
       <c r="D6">
-        <v>2.21556876635431</v>
+        <v>2.215568766354467</v>
       </c>
       <c r="E6">
-        <v>5.413606554669242</v>
+        <v>5.413606554669143</v>
       </c>
       <c r="F6">
-        <v>31.48951852804422</v>
+        <v>31.48951852804418</v>
       </c>
       <c r="G6">
-        <v>24.28352104876558</v>
+        <v>24.28352104876556</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>52.6853447967023</v>
+        <v>52.68534479670228</v>
       </c>
       <c r="K6">
-        <v>6.166449045871182</v>
+        <v>6.1664490458712</v>
       </c>
       <c r="L6">
-        <v>33.6032394267987</v>
+        <v>33.60323942679869</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.378026611607853</v>
+        <v>5.378026611607877</v>
       </c>
       <c r="D7">
-        <v>2.287356818930623</v>
+        <v>2.287356818930601</v>
       </c>
       <c r="E7">
-        <v>5.403791631768669</v>
+        <v>5.40379163176871</v>
       </c>
       <c r="F7">
-        <v>32.33603416992384</v>
+        <v>32.33603416992377</v>
       </c>
       <c r="G7">
-        <v>24.92732140528804</v>
+        <v>24.92732140528799</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>54.07725323320683</v>
+        <v>54.07725323320685</v>
       </c>
       <c r="K7">
-        <v>6.218378644312017</v>
+        <v>6.218378644312046</v>
       </c>
       <c r="L7">
-        <v>34.49711992481437</v>
+        <v>34.4971199248144</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.898979824011388</v>
+        <v>5.898979824011379</v>
       </c>
       <c r="D8">
-        <v>2.858524184542413</v>
+        <v>2.858524184542423</v>
       </c>
       <c r="E8">
-        <v>5.378033322106359</v>
+        <v>5.378033322106355</v>
       </c>
       <c r="F8">
-        <v>36.43915645787071</v>
+        <v>36.43915645787053</v>
       </c>
       <c r="G8">
-        <v>28.24201531383214</v>
+        <v>28.24201531383198</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>59.96079628967702</v>
+        <v>59.96079628967698</v>
       </c>
       <c r="K8">
-        <v>6.449922455680928</v>
+        <v>6.44992245568093</v>
       </c>
       <c r="L8">
-        <v>38.28190484208376</v>
+        <v>38.28190484208373</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.127907320534985</v>
+        <v>7.127907320534936</v>
       </c>
       <c r="D9">
-        <v>4.064183013293705</v>
+        <v>4.064183013293665</v>
       </c>
       <c r="E9">
-        <v>5.404259377354428</v>
+        <v>5.404259377354457</v>
       </c>
       <c r="F9">
-        <v>44.83673527190569</v>
+        <v>44.83673527190535</v>
       </c>
       <c r="G9">
-        <v>35.02985853166128</v>
+        <v>35.02985853166098</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>70.70394994993828</v>
+        <v>70.70394994993826</v>
       </c>
       <c r="K9">
-        <v>6.914275307984731</v>
+        <v>6.914275307984728</v>
       </c>
       <c r="L9">
-        <v>45.22259984626132</v>
+        <v>45.22259984626127</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.054936662548599</v>
+        <v>8.054936662548698</v>
       </c>
       <c r="D10">
-        <v>5.049927377066436</v>
+        <v>5.049927377066502</v>
       </c>
       <c r="E10">
-        <v>5.808888692703012</v>
+        <v>5.808888692702991</v>
       </c>
       <c r="F10">
-        <v>51.47165978947699</v>
+        <v>51.47165978947746</v>
       </c>
       <c r="G10">
-        <v>40.40232165606837</v>
+        <v>40.40232165606879</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>78.2941089774024</v>
+        <v>78.29410897740262</v>
       </c>
       <c r="K10">
-        <v>7.26578575575599</v>
+        <v>7.265785755756041</v>
       </c>
       <c r="L10">
-        <v>50.15385032578731</v>
+        <v>50.15385032578747</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.491179628031343</v>
+        <v>8.491179628031286</v>
       </c>
       <c r="D11">
-        <v>5.538428165529576</v>
+        <v>5.538428165529565</v>
       </c>
       <c r="E11">
-        <v>6.076254839375802</v>
+        <v>6.076254839375814</v>
       </c>
       <c r="F11">
-        <v>54.68880622104627</v>
+        <v>54.68880622104589</v>
       </c>
       <c r="G11">
-        <v>43.01130320017966</v>
+        <v>43.01130320017933</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>81.74373905493584</v>
+        <v>81.74373905493565</v>
       </c>
       <c r="K11">
-        <v>7.510663814048114</v>
+        <v>7.510663814048129</v>
       </c>
       <c r="L11">
-        <v>52.4040287953537</v>
+        <v>52.40402879535354</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.659989327471276</v>
+        <v>8.659989327471292</v>
       </c>
       <c r="D12">
-        <v>5.731666607848402</v>
+        <v>5.731666607848462</v>
       </c>
       <c r="E12">
-        <v>6.178493088943538</v>
+        <v>6.178493088943545</v>
       </c>
       <c r="F12">
-        <v>55.94903791479717</v>
+        <v>55.94903791479739</v>
       </c>
       <c r="G12">
-        <v>44.03407864284122</v>
+        <v>44.03407864284138</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>83.05767098764181</v>
+        <v>83.05767098764188</v>
       </c>
       <c r="K12">
-        <v>7.615866084633223</v>
+        <v>7.615866084633225</v>
       </c>
       <c r="L12">
-        <v>53.26275151499434</v>
+        <v>53.2627515149944</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.623440315678749</v>
+        <v>8.623440315678675</v>
       </c>
       <c r="D13">
-        <v>5.689629312606243</v>
+        <v>5.689629312606352</v>
       </c>
       <c r="E13">
-        <v>6.1564174569257</v>
+        <v>6.156417456925715</v>
       </c>
       <c r="F13">
-        <v>55.67547345918378</v>
+        <v>55.67547345918351</v>
       </c>
       <c r="G13">
-        <v>43.81202182861891</v>
+        <v>43.81202182861872</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>82.77418378863159</v>
+        <v>82.77418378863152</v>
       </c>
       <c r="K13">
-        <v>7.593229314329447</v>
+        <v>7.593229314329468</v>
       </c>
       <c r="L13">
-        <v>53.07739749296793</v>
+        <v>53.07739749296788</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.50498400119324</v>
+        <v>8.504984001193225</v>
       </c>
       <c r="D14">
-        <v>5.554142035363866</v>
+        <v>5.554142035363546</v>
       </c>
       <c r="E14">
-        <v>6.084641696584145</v>
+        <v>6.084641696584162</v>
       </c>
       <c r="F14">
-        <v>54.79154527793856</v>
+        <v>54.79154527793825</v>
       </c>
       <c r="G14">
-        <v>43.09466718179655</v>
+        <v>43.09466718179623</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>81.8516246640735</v>
+        <v>81.85162466407337</v>
       </c>
       <c r="K14">
-        <v>7.519328790894245</v>
+        <v>7.519328790894246</v>
       </c>
       <c r="L14">
-        <v>52.47450214287743</v>
+        <v>52.47450214287733</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.432953842551543</v>
+        <v>8.432953842551569</v>
       </c>
       <c r="D15">
-        <v>5.472320997844584</v>
+        <v>5.472320997844577</v>
       </c>
       <c r="E15">
-        <v>6.040828828947616</v>
+        <v>6.040828828947662</v>
       </c>
       <c r="F15">
-        <v>54.25608475529942</v>
+        <v>54.25608475529901</v>
       </c>
       <c r="G15">
-        <v>42.66021886222747</v>
+        <v>42.66021886222713</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>81.28782557566323</v>
+        <v>81.28782557566304</v>
       </c>
       <c r="K15">
-        <v>7.473994446630805</v>
+        <v>7.473994446630823</v>
       </c>
       <c r="L15">
-        <v>52.10628460489335</v>
+        <v>52.10628460489325</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.02683519857052</v>
+        <v>8.026835198570518</v>
       </c>
       <c r="D16">
-        <v>5.018997317898478</v>
+        <v>5.018997317898536</v>
       </c>
       <c r="E16">
-        <v>5.791515695402345</v>
+        <v>5.791515695402341</v>
       </c>
       <c r="F16">
-        <v>51.26642198519635</v>
+        <v>51.26642198519623</v>
       </c>
       <c r="G16">
-        <v>40.23597525171759</v>
+        <v>40.23597525171751</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>78.06921958442808</v>
+        <v>78.06921958442811</v>
       </c>
       <c r="K16">
-        <v>7.255171723204294</v>
+        <v>7.25517172320429</v>
       </c>
       <c r="L16">
         <v>50.00736385354779</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.782309731670373</v>
+        <v>7.782309731670406</v>
       </c>
       <c r="D17">
-        <v>4.752612206467511</v>
+        <v>4.75261220646733</v>
       </c>
       <c r="E17">
-        <v>5.639610092957834</v>
+        <v>5.639610092957811</v>
       </c>
       <c r="F17">
-        <v>49.49105593899299</v>
+        <v>49.49105593899304</v>
       </c>
       <c r="G17">
-        <v>38.79747968357356</v>
+        <v>38.79747968357358</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>76.09866707090899</v>
+        <v>76.09866707090879</v>
       </c>
       <c r="K17">
-        <v>7.162624764859054</v>
+        <v>7.162624764859007</v>
       </c>
       <c r="L17">
-        <v>48.72483627875625</v>
+        <v>48.72483627875616</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.642913747992022</v>
+        <v>7.642913747992027</v>
       </c>
       <c r="D18">
-        <v>4.602970625786992</v>
+        <v>4.602970625787234</v>
       </c>
       <c r="E18">
-        <v>5.552438625623225</v>
+        <v>5.552438625623221</v>
       </c>
       <c r="F18">
-        <v>48.48757372513353</v>
+        <v>48.48757372513376</v>
       </c>
       <c r="G18">
-        <v>37.98475096628677</v>
+        <v>37.984750966287</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>74.96433073600612</v>
+        <v>74.96433073600632</v>
       </c>
       <c r="K18">
-        <v>7.109754568916187</v>
+        <v>7.109754568916249</v>
       </c>
       <c r="L18">
-        <v>47.98737438949651</v>
+        <v>47.98737438949664</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.595894660133486</v>
+        <v>7.595894660133667</v>
       </c>
       <c r="D19">
-        <v>4.552859736761878</v>
+        <v>4.552859736762081</v>
       </c>
       <c r="E19">
-        <v>5.522943367161322</v>
+        <v>5.522943367161246</v>
       </c>
       <c r="F19">
-        <v>48.15052952237013</v>
+        <v>48.15052952237082</v>
       </c>
       <c r="G19">
-        <v>37.71183019553227</v>
+        <v>37.71183019553287</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>74.57990972315977</v>
+        <v>74.57990972315999</v>
       </c>
       <c r="K19">
-        <v>7.091909611144913</v>
+        <v>7.091909611144962</v>
       </c>
       <c r="L19">
-        <v>47.73758359890227</v>
+        <v>47.73758359890244</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1102,16 +1102,16 @@
         <v>7.808201663816086</v>
       </c>
       <c r="D20">
-        <v>4.780584655414887</v>
+        <v>4.780584655414827</v>
       </c>
       <c r="E20">
-        <v>5.655756259096323</v>
+        <v>5.655756259096304</v>
       </c>
       <c r="F20">
-        <v>49.67814069777904</v>
+        <v>49.6781406977791</v>
       </c>
       <c r="G20">
-        <v>38.94902837595377</v>
+        <v>38.94902837595381</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>76.30848358225734</v>
+        <v>76.3084835822573</v>
       </c>
       <c r="K20">
-        <v>7.172437783911177</v>
+        <v>7.172437783911207</v>
       </c>
       <c r="L20">
         <v>48.86130794205116</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.539663718131067</v>
+        <v>8.53966371813101</v>
       </c>
       <c r="D21">
-        <v>5.593688099164854</v>
+        <v>5.593688099164912</v>
       </c>
       <c r="E21">
-        <v>6.105690841429235</v>
+        <v>6.105690841429215</v>
       </c>
       <c r="F21">
-        <v>55.04989840451091</v>
+        <v>55.04989840451076</v>
       </c>
       <c r="G21">
-        <v>43.30431174406483</v>
+        <v>43.30431174406471</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>82.12231282171875</v>
+        <v>82.12231282171865</v>
       </c>
       <c r="K21">
-        <v>7.541048505576928</v>
+        <v>7.541048505576926</v>
       </c>
       <c r="L21">
-        <v>52.65134953971511</v>
+        <v>52.65134953971503</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.040100809855153</v>
+        <v>9.040100809855272</v>
       </c>
       <c r="D22">
-        <v>6.17539625403859</v>
+        <v>6.175396254038718</v>
       </c>
       <c r="E22">
-        <v>6.406042126080442</v>
+        <v>6.40604212608042</v>
       </c>
       <c r="F22">
-        <v>58.81707600619153</v>
+        <v>58.81707600619145</v>
       </c>
       <c r="G22">
-        <v>46.36341314112182</v>
+        <v>46.3634131411218</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>85.97337379736126</v>
+        <v>85.97337379736123</v>
       </c>
       <c r="K22">
-        <v>7.846630602685395</v>
+        <v>7.846630602685376</v>
       </c>
       <c r="L22">
-        <v>55.17182204126468</v>
+        <v>55.17182204126465</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.770245350991408</v>
+        <v>8.770245350991351</v>
       </c>
       <c r="D23">
-        <v>5.859146510823185</v>
+        <v>5.859146510823035</v>
       </c>
       <c r="E23">
-        <v>6.244883241124024</v>
+        <v>6.244883241124095</v>
       </c>
       <c r="F23">
-        <v>56.77665247079383</v>
+        <v>56.77665247079335</v>
       </c>
       <c r="G23">
-        <v>44.70599729563077</v>
+        <v>44.7059972956303</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>83.90953029196665</v>
+        <v>83.90953029196635</v>
       </c>
       <c r="K23">
-        <v>7.683680168613261</v>
+        <v>7.683680168613292</v>
       </c>
       <c r="L23">
-        <v>53.81999951720427</v>
+        <v>53.81999951720412</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.796492334522098</v>
+        <v>7.796492334522067</v>
       </c>
       <c r="D24">
-        <v>4.767927557995189</v>
+        <v>4.767927557995334</v>
       </c>
       <c r="E24">
-        <v>5.648456117964098</v>
+        <v>5.648456117964034</v>
       </c>
       <c r="F24">
-        <v>49.59350701534561</v>
+        <v>49.59350701534588</v>
       </c>
       <c r="G24">
-        <v>38.88046948217812</v>
+        <v>38.88046948217838</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>76.21363057537509</v>
+        <v>76.21363057537516</v>
       </c>
       <c r="K24">
-        <v>7.168000287722622</v>
+        <v>7.168000287722633</v>
       </c>
       <c r="L24">
-        <v>48.79960986171539</v>
+        <v>48.79960986171545</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.792148990767702</v>
+        <v>6.792148990767672</v>
       </c>
       <c r="D25">
-        <v>3.72501932768058</v>
+        <v>3.725019327680518</v>
       </c>
       <c r="E25">
-        <v>5.387424066336605</v>
+        <v>5.387424066336712</v>
       </c>
       <c r="F25">
-        <v>42.50728582419904</v>
+        <v>42.50728582419922</v>
       </c>
       <c r="G25">
-        <v>33.14589623183888</v>
+        <v>33.145896231839</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>67.86699223654307</v>
+        <v>67.86699223654311</v>
       </c>
       <c r="K25">
-        <v>6.787256765548243</v>
+        <v>6.78725676554833</v>
       </c>
       <c r="L25">
-        <v>43.38566492453496</v>
+        <v>43.38566492453498</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_line/loading_percent.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.057909438935627</v>
+        <v>6.057909438935613</v>
       </c>
       <c r="D2">
-        <v>3.017893592970317</v>
+        <v>3.017893592970335</v>
       </c>
       <c r="E2">
-        <v>5.375738006806078</v>
+        <v>5.375738006806027</v>
       </c>
       <c r="F2">
-        <v>37.56848305083262</v>
+        <v>37.56848305083281</v>
       </c>
       <c r="G2">
-        <v>29.1543800615696</v>
+        <v>29.15438006156975</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>61.49603040893967</v>
       </c>
       <c r="K2">
-        <v>6.513271184830828</v>
+        <v>6.513271184830777</v>
       </c>
       <c r="L2">
-        <v>39.27128330434081</v>
+        <v>39.27128330434084</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.629503812169786</v>
+        <v>5.629503812169784</v>
       </c>
       <c r="D3">
-        <v>2.561168375102884</v>
+        <v>2.561168375102815</v>
       </c>
       <c r="E3">
-        <v>5.387818430607652</v>
+        <v>5.387818430607559</v>
       </c>
       <c r="F3">
-        <v>34.31458253312736</v>
+        <v>34.31458253312728</v>
       </c>
       <c r="G3">
-        <v>26.5257286444615</v>
+        <v>26.52572864446143</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>56.97914168749551</v>
+        <v>56.97914168749545</v>
       </c>
       <c r="K3">
-        <v>6.330248980831096</v>
+        <v>6.330248980831032</v>
       </c>
       <c r="L3">
-        <v>36.36253405076212</v>
+        <v>36.3625340507621</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.379394913496836</v>
+        <v>5.379394913496832</v>
       </c>
       <c r="D4">
-        <v>2.288836521621003</v>
+        <v>2.288836521621155</v>
       </c>
       <c r="E4">
-        <v>5.403685850197964</v>
+        <v>5.403685850198004</v>
       </c>
       <c r="F4">
-        <v>32.34679001207529</v>
+        <v>32.34679001207542</v>
       </c>
       <c r="G4">
-        <v>24.93601146589413</v>
+        <v>24.93601146589425</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>54.09339356545819</v>
+        <v>54.09339356545825</v>
       </c>
       <c r="K4">
-        <v>6.218987568770741</v>
+        <v>6.218987568770712</v>
       </c>
       <c r="L4">
-        <v>34.5074884923118</v>
+        <v>34.50748849231187</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.278121114870933</v>
+        <v>5.278121114870942</v>
       </c>
       <c r="D5">
-        <v>2.208394385005906</v>
+        <v>2.208394385005792</v>
       </c>
       <c r="E5">
         <v>5.412097169073546</v>
       </c>
       <c r="F5">
-        <v>31.6038671735065</v>
+        <v>31.60386717350661</v>
       </c>
       <c r="G5">
-        <v>24.36531329806797</v>
+        <v>24.36531329806801</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>52.88744745601425</v>
+        <v>52.88744745601445</v>
       </c>
       <c r="K5">
-        <v>6.173916829262193</v>
+        <v>6.173916829262202</v>
       </c>
       <c r="L5">
-        <v>33.73299479631356</v>
+        <v>33.73299479631368</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.261341026743558</v>
+        <v>5.261341026743573</v>
       </c>
       <c r="D6">
-        <v>2.215568766354467</v>
+        <v>2.21556876635431</v>
       </c>
       <c r="E6">
-        <v>5.413606554669143</v>
+        <v>5.413606554669242</v>
       </c>
       <c r="F6">
-        <v>31.48951852804418</v>
+        <v>31.48951852804422</v>
       </c>
       <c r="G6">
-        <v>24.28352104876556</v>
+        <v>24.28352104876558</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>52.68534479670228</v>
+        <v>52.6853447967023</v>
       </c>
       <c r="K6">
-        <v>6.1664490458712</v>
+        <v>6.166449045871182</v>
       </c>
       <c r="L6">
-        <v>33.60323942679869</v>
+        <v>33.6032394267987</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.378026611607877</v>
+        <v>5.378026611607853</v>
       </c>
       <c r="D7">
-        <v>2.287356818930601</v>
+        <v>2.287356818930623</v>
       </c>
       <c r="E7">
-        <v>5.40379163176871</v>
+        <v>5.403791631768669</v>
       </c>
       <c r="F7">
-        <v>32.33603416992377</v>
+        <v>32.33603416992384</v>
       </c>
       <c r="G7">
-        <v>24.92732140528799</v>
+        <v>24.92732140528804</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>54.07725323320685</v>
+        <v>54.07725323320683</v>
       </c>
       <c r="K7">
-        <v>6.218378644312046</v>
+        <v>6.218378644312017</v>
       </c>
       <c r="L7">
-        <v>34.4971199248144</v>
+        <v>34.49711992481437</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.898979824011379</v>
+        <v>5.898979824011388</v>
       </c>
       <c r="D8">
-        <v>2.858524184542423</v>
+        <v>2.858524184542413</v>
       </c>
       <c r="E8">
-        <v>5.378033322106355</v>
+        <v>5.378033322106359</v>
       </c>
       <c r="F8">
-        <v>36.43915645787053</v>
+        <v>36.43915645787071</v>
       </c>
       <c r="G8">
-        <v>28.24201531383198</v>
+        <v>28.24201531383214</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>59.96079628967698</v>
+        <v>59.96079628967702</v>
       </c>
       <c r="K8">
-        <v>6.44992245568093</v>
+        <v>6.449922455680928</v>
       </c>
       <c r="L8">
-        <v>38.28190484208373</v>
+        <v>38.28190484208376</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.127907320534936</v>
+        <v>7.127907320534985</v>
       </c>
       <c r="D9">
-        <v>4.064183013293665</v>
+        <v>4.064183013293705</v>
       </c>
       <c r="E9">
-        <v>5.404259377354457</v>
+        <v>5.404259377354428</v>
       </c>
       <c r="F9">
-        <v>44.83673527190535</v>
+        <v>44.83673527190569</v>
       </c>
       <c r="G9">
-        <v>35.02985853166098</v>
+        <v>35.02985853166128</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>70.70394994993826</v>
+        <v>70.70394994993828</v>
       </c>
       <c r="K9">
-        <v>6.914275307984728</v>
+        <v>6.914275307984731</v>
       </c>
       <c r="L9">
-        <v>45.22259984626127</v>
+        <v>45.22259984626132</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.054936662548698</v>
+        <v>8.054936662548599</v>
       </c>
       <c r="D10">
-        <v>5.049927377066502</v>
+        <v>5.049927377066436</v>
       </c>
       <c r="E10">
-        <v>5.808888692702991</v>
+        <v>5.808888692703012</v>
       </c>
       <c r="F10">
-        <v>51.47165978947746</v>
+        <v>51.47165978947699</v>
       </c>
       <c r="G10">
-        <v>40.40232165606879</v>
+        <v>40.40232165606837</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>78.29410897740262</v>
+        <v>78.2941089774024</v>
       </c>
       <c r="K10">
-        <v>7.265785755756041</v>
+        <v>7.26578575575599</v>
       </c>
       <c r="L10">
-        <v>50.15385032578747</v>
+        <v>50.15385032578731</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.491179628031286</v>
+        <v>8.491179628031343</v>
       </c>
       <c r="D11">
-        <v>5.538428165529565</v>
+        <v>5.538428165529576</v>
       </c>
       <c r="E11">
-        <v>6.076254839375814</v>
+        <v>6.076254839375802</v>
       </c>
       <c r="F11">
-        <v>54.68880622104589</v>
+        <v>54.68880622104627</v>
       </c>
       <c r="G11">
-        <v>43.01130320017933</v>
+        <v>43.01130320017966</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>81.74373905493565</v>
+        <v>81.74373905493584</v>
       </c>
       <c r="K11">
-        <v>7.510663814048129</v>
+        <v>7.510663814048114</v>
       </c>
       <c r="L11">
-        <v>52.40402879535354</v>
+        <v>52.4040287953537</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.659989327471292</v>
+        <v>8.659989327471276</v>
       </c>
       <c r="D12">
-        <v>5.731666607848462</v>
+        <v>5.731666607848402</v>
       </c>
       <c r="E12">
-        <v>6.178493088943545</v>
+        <v>6.178493088943538</v>
       </c>
       <c r="F12">
-        <v>55.94903791479739</v>
+        <v>55.94903791479717</v>
       </c>
       <c r="G12">
-        <v>44.03407864284138</v>
+        <v>44.03407864284122</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>83.05767098764188</v>
+        <v>83.05767098764181</v>
       </c>
       <c r="K12">
-        <v>7.615866084633225</v>
+        <v>7.615866084633223</v>
       </c>
       <c r="L12">
-        <v>53.2627515149944</v>
+        <v>53.26275151499434</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.623440315678675</v>
+        <v>8.623440315678749</v>
       </c>
       <c r="D13">
-        <v>5.689629312606352</v>
+        <v>5.689629312606243</v>
       </c>
       <c r="E13">
-        <v>6.156417456925715</v>
+        <v>6.1564174569257</v>
       </c>
       <c r="F13">
-        <v>55.67547345918351</v>
+        <v>55.67547345918378</v>
       </c>
       <c r="G13">
-        <v>43.81202182861872</v>
+        <v>43.81202182861891</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>82.77418378863152</v>
+        <v>82.77418378863159</v>
       </c>
       <c r="K13">
-        <v>7.593229314329468</v>
+        <v>7.593229314329447</v>
       </c>
       <c r="L13">
-        <v>53.07739749296788</v>
+        <v>53.07739749296793</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.504984001193225</v>
+        <v>8.50498400119324</v>
       </c>
       <c r="D14">
-        <v>5.554142035363546</v>
+        <v>5.554142035363866</v>
       </c>
       <c r="E14">
-        <v>6.084641696584162</v>
+        <v>6.084641696584145</v>
       </c>
       <c r="F14">
-        <v>54.79154527793825</v>
+        <v>54.79154527793856</v>
       </c>
       <c r="G14">
-        <v>43.09466718179623</v>
+        <v>43.09466718179655</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>81.85162466407337</v>
+        <v>81.8516246640735</v>
       </c>
       <c r="K14">
-        <v>7.519328790894246</v>
+        <v>7.519328790894245</v>
       </c>
       <c r="L14">
-        <v>52.47450214287733</v>
+        <v>52.47450214287743</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.432953842551569</v>
+        <v>8.432953842551543</v>
       </c>
       <c r="D15">
-        <v>5.472320997844577</v>
+        <v>5.472320997844584</v>
       </c>
       <c r="E15">
-        <v>6.040828828947662</v>
+        <v>6.040828828947616</v>
       </c>
       <c r="F15">
-        <v>54.25608475529901</v>
+        <v>54.25608475529942</v>
       </c>
       <c r="G15">
-        <v>42.66021886222713</v>
+        <v>42.66021886222747</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>81.28782557566304</v>
+        <v>81.28782557566323</v>
       </c>
       <c r="K15">
-        <v>7.473994446630823</v>
+        <v>7.473994446630805</v>
       </c>
       <c r="L15">
-        <v>52.10628460489325</v>
+        <v>52.10628460489335</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.026835198570518</v>
+        <v>8.02683519857052</v>
       </c>
       <c r="D16">
-        <v>5.018997317898536</v>
+        <v>5.018997317898478</v>
       </c>
       <c r="E16">
-        <v>5.791515695402341</v>
+        <v>5.791515695402345</v>
       </c>
       <c r="F16">
-        <v>51.26642198519623</v>
+        <v>51.26642198519635</v>
       </c>
       <c r="G16">
-        <v>40.23597525171751</v>
+        <v>40.23597525171759</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>78.06921958442811</v>
+        <v>78.06921958442808</v>
       </c>
       <c r="K16">
-        <v>7.25517172320429</v>
+        <v>7.255171723204294</v>
       </c>
       <c r="L16">
         <v>50.00736385354779</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.782309731670406</v>
+        <v>7.782309731670373</v>
       </c>
       <c r="D17">
-        <v>4.75261220646733</v>
+        <v>4.752612206467511</v>
       </c>
       <c r="E17">
-        <v>5.639610092957811</v>
+        <v>5.639610092957834</v>
       </c>
       <c r="F17">
-        <v>49.49105593899304</v>
+        <v>49.49105593899299</v>
       </c>
       <c r="G17">
-        <v>38.79747968357358</v>
+        <v>38.79747968357356</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>76.09866707090879</v>
+        <v>76.09866707090899</v>
       </c>
       <c r="K17">
-        <v>7.162624764859007</v>
+        <v>7.162624764859054</v>
       </c>
       <c r="L17">
-        <v>48.72483627875616</v>
+        <v>48.72483627875625</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.642913747992027</v>
+        <v>7.642913747992022</v>
       </c>
       <c r="D18">
-        <v>4.602970625787234</v>
+        <v>4.602970625786992</v>
       </c>
       <c r="E18">
-        <v>5.552438625623221</v>
+        <v>5.552438625623225</v>
       </c>
       <c r="F18">
-        <v>48.48757372513376</v>
+        <v>48.48757372513353</v>
       </c>
       <c r="G18">
-        <v>37.984750966287</v>
+        <v>37.98475096628677</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>74.96433073600632</v>
+        <v>74.96433073600612</v>
       </c>
       <c r="K18">
-        <v>7.109754568916249</v>
+        <v>7.109754568916187</v>
       </c>
       <c r="L18">
-        <v>47.98737438949664</v>
+        <v>47.98737438949651</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.595894660133667</v>
+        <v>7.595894660133486</v>
       </c>
       <c r="D19">
-        <v>4.552859736762081</v>
+        <v>4.552859736761878</v>
       </c>
       <c r="E19">
-        <v>5.522943367161246</v>
+        <v>5.522943367161322</v>
       </c>
       <c r="F19">
-        <v>48.15052952237082</v>
+        <v>48.15052952237013</v>
       </c>
       <c r="G19">
-        <v>37.71183019553287</v>
+        <v>37.71183019553227</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>74.57990972315999</v>
+        <v>74.57990972315977</v>
       </c>
       <c r="K19">
-        <v>7.091909611144962</v>
+        <v>7.091909611144913</v>
       </c>
       <c r="L19">
-        <v>47.73758359890244</v>
+        <v>47.73758359890227</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1102,16 +1102,16 @@
         <v>7.808201663816086</v>
       </c>
       <c r="D20">
-        <v>4.780584655414827</v>
+        <v>4.780584655414887</v>
       </c>
       <c r="E20">
-        <v>5.655756259096304</v>
+        <v>5.655756259096323</v>
       </c>
       <c r="F20">
-        <v>49.6781406977791</v>
+        <v>49.67814069777904</v>
       </c>
       <c r="G20">
-        <v>38.94902837595381</v>
+        <v>38.94902837595377</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>76.3084835822573</v>
+        <v>76.30848358225734</v>
       </c>
       <c r="K20">
-        <v>7.172437783911207</v>
+        <v>7.172437783911177</v>
       </c>
       <c r="L20">
         <v>48.86130794205116</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.53966371813101</v>
+        <v>8.539663718131067</v>
       </c>
       <c r="D21">
-        <v>5.593688099164912</v>
+        <v>5.593688099164854</v>
       </c>
       <c r="E21">
-        <v>6.105690841429215</v>
+        <v>6.105690841429235</v>
       </c>
       <c r="F21">
-        <v>55.04989840451076</v>
+        <v>55.04989840451091</v>
       </c>
       <c r="G21">
-        <v>43.30431174406471</v>
+        <v>43.30431174406483</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>82.12231282171865</v>
+        <v>82.12231282171875</v>
       </c>
       <c r="K21">
-        <v>7.541048505576926</v>
+        <v>7.541048505576928</v>
       </c>
       <c r="L21">
-        <v>52.65134953971503</v>
+        <v>52.65134953971511</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.040100809855272</v>
+        <v>9.040100809855153</v>
       </c>
       <c r="D22">
-        <v>6.175396254038718</v>
+        <v>6.17539625403859</v>
       </c>
       <c r="E22">
-        <v>6.40604212608042</v>
+        <v>6.406042126080442</v>
       </c>
       <c r="F22">
-        <v>58.81707600619145</v>
+        <v>58.81707600619153</v>
       </c>
       <c r="G22">
-        <v>46.3634131411218</v>
+        <v>46.36341314112182</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>85.97337379736123</v>
+        <v>85.97337379736126</v>
       </c>
       <c r="K22">
-        <v>7.846630602685376</v>
+        <v>7.846630602685395</v>
       </c>
       <c r="L22">
-        <v>55.17182204126465</v>
+        <v>55.17182204126468</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.770245350991351</v>
+        <v>8.770245350991408</v>
       </c>
       <c r="D23">
-        <v>5.859146510823035</v>
+        <v>5.859146510823185</v>
       </c>
       <c r="E23">
-        <v>6.244883241124095</v>
+        <v>6.244883241124024</v>
       </c>
       <c r="F23">
-        <v>56.77665247079335</v>
+        <v>56.77665247079383</v>
       </c>
       <c r="G23">
-        <v>44.7059972956303</v>
+        <v>44.70599729563077</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>83.90953029196635</v>
+        <v>83.90953029196665</v>
       </c>
       <c r="K23">
-        <v>7.683680168613292</v>
+        <v>7.683680168613261</v>
       </c>
       <c r="L23">
-        <v>53.81999951720412</v>
+        <v>53.81999951720427</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.796492334522067</v>
+        <v>7.796492334522098</v>
       </c>
       <c r="D24">
-        <v>4.767927557995334</v>
+        <v>4.767927557995189</v>
       </c>
       <c r="E24">
-        <v>5.648456117964034</v>
+        <v>5.648456117964098</v>
       </c>
       <c r="F24">
-        <v>49.59350701534588</v>
+        <v>49.59350701534561</v>
       </c>
       <c r="G24">
-        <v>38.88046948217838</v>
+        <v>38.88046948217812</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>76.21363057537516</v>
+        <v>76.21363057537509</v>
       </c>
       <c r="K24">
-        <v>7.168000287722633</v>
+        <v>7.168000287722622</v>
       </c>
       <c r="L24">
-        <v>48.79960986171545</v>
+        <v>48.79960986171539</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.792148990767672</v>
+        <v>6.792148990767702</v>
       </c>
       <c r="D25">
-        <v>3.725019327680518</v>
+        <v>3.72501932768058</v>
       </c>
       <c r="E25">
-        <v>5.387424066336712</v>
+        <v>5.387424066336605</v>
       </c>
       <c r="F25">
-        <v>42.50728582419922</v>
+        <v>42.50728582419904</v>
       </c>
       <c r="G25">
-        <v>33.145896231839</v>
+        <v>33.14589623183888</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>67.86699223654311</v>
+        <v>67.86699223654307</v>
       </c>
       <c r="K25">
-        <v>6.78725676554833</v>
+        <v>6.787256765548243</v>
       </c>
       <c r="L25">
-        <v>43.38566492453498</v>
+        <v>43.38566492453496</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.057909438935613</v>
+        <v>6.057571359020213</v>
       </c>
       <c r="D2">
-        <v>3.017893592970335</v>
+        <v>3.010567691513241</v>
       </c>
       <c r="E2">
-        <v>5.375738006806027</v>
+        <v>5.374034572471311</v>
       </c>
       <c r="F2">
-        <v>37.56848305083281</v>
+        <v>37.52878562677514</v>
       </c>
       <c r="G2">
-        <v>29.15438006156975</v>
+        <v>29.19141079093665</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>28.84972906100483</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>61.49603040893967</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>6.513271184830777</v>
+        <v>61.49193907809282</v>
       </c>
       <c r="L2">
-        <v>39.27128330434084</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>6.511956843998338</v>
+      </c>
+      <c r="M2">
+        <v>39.26845289517864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.629503812169784</v>
+        <v>5.629199195349694</v>
       </c>
       <c r="D3">
-        <v>2.561168375102815</v>
+        <v>2.554434201221637</v>
       </c>
       <c r="E3">
-        <v>5.387818430607559</v>
+        <v>5.386317211539382</v>
       </c>
       <c r="F3">
-        <v>34.31458253312728</v>
+        <v>34.27851539110082</v>
       </c>
       <c r="G3">
-        <v>26.52572864446143</v>
+        <v>26.55965489734481</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.34856373843587</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>56.97914168749545</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6.330248980831032</v>
+        <v>56.97613532366764</v>
       </c>
       <c r="L3">
-        <v>36.3625340507621</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>6.329138066681566</v>
+      </c>
+      <c r="M3">
+        <v>36.36044476475982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.379394913496832</v>
+        <v>5.379147440479788</v>
       </c>
       <c r="D4">
-        <v>2.288836521621155</v>
+        <v>2.282422807898675</v>
       </c>
       <c r="E4">
-        <v>5.403685850198004</v>
+        <v>5.402342414758852</v>
       </c>
       <c r="F4">
-        <v>32.34679001207542</v>
+        <v>32.31286119684624</v>
       </c>
       <c r="G4">
-        <v>24.93601146589425</v>
+        <v>24.96804637694961</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>24.89508471539263</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>54.09339356545825</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6.218987568770712</v>
+        <v>54.09097778858718</v>
       </c>
       <c r="L4">
-        <v>34.50748849231187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>6.218012654539132</v>
+      </c>
+      <c r="M4">
+        <v>34.50580361308182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.278121114870942</v>
+        <v>5.27789531621503</v>
       </c>
       <c r="D5">
-        <v>2.208394385005792</v>
+        <v>2.202910923245768</v>
       </c>
       <c r="E5">
-        <v>5.412097169073546</v>
+        <v>5.41082540080144</v>
       </c>
       <c r="F5">
-        <v>31.60386717350661</v>
+        <v>31.57172841899179</v>
       </c>
       <c r="G5">
-        <v>24.36531329806801</v>
+        <v>24.32426980241476</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>24.39625360813776</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>52.88744745601445</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6.173916829262202</v>
+        <v>52.88525748630592</v>
       </c>
       <c r="L5">
-        <v>33.73299479631368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>6.173000135849636</v>
+      </c>
+      <c r="M5">
+        <v>33.73146483611978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.261341026743573</v>
+        <v>5.261118745680929</v>
       </c>
       <c r="D6">
-        <v>2.21556876635431</v>
+        <v>2.210141875085276</v>
       </c>
       <c r="E6">
-        <v>5.413606554669242</v>
+        <v>5.41234710248797</v>
       </c>
       <c r="F6">
-        <v>31.48951852804422</v>
+        <v>31.45752383435529</v>
       </c>
       <c r="G6">
-        <v>24.28352104876558</v>
+        <v>24.21763483025589</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>24.31436670376388</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>52.6853447967023</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>6.166449045871182</v>
+        <v>52.68319152674334</v>
       </c>
       <c r="L6">
-        <v>33.6032394267987</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>6.16554218874832</v>
+      </c>
+      <c r="M6">
+        <v>33.6017346646228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.378026611607853</v>
+        <v>5.377779436687067</v>
       </c>
       <c r="D7">
-        <v>2.287356818930623</v>
+        <v>2.280944768957291</v>
       </c>
       <c r="E7">
-        <v>5.403791631768669</v>
+        <v>5.40244913436067</v>
       </c>
       <c r="F7">
-        <v>32.33603416992384</v>
+        <v>32.30211695121935</v>
       </c>
       <c r="G7">
-        <v>24.92732140528804</v>
+        <v>24.95934598363817</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>24.88829361688866</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>54.07725323320683</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>6.218378644312017</v>
+        <v>54.07484055708532</v>
       </c>
       <c r="L7">
-        <v>34.49711992481437</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>6.21740450394142</v>
+      </c>
+      <c r="M7">
+        <v>34.49543717161114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.898979824011388</v>
+        <v>5.898606952856481</v>
       </c>
       <c r="D8">
-        <v>2.858524184542413</v>
+        <v>2.851411673072765</v>
       </c>
       <c r="E8">
-        <v>5.378033322106359</v>
+        <v>5.376391937545472</v>
       </c>
       <c r="F8">
-        <v>36.43915645787071</v>
+        <v>36.40073458175393</v>
       </c>
       <c r="G8">
-        <v>28.24201531383214</v>
+        <v>28.27797459381928</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>27.97851337298913</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>59.96079628967702</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>6.449922455680928</v>
+        <v>59.95709759871009</v>
       </c>
       <c r="L8">
-        <v>38.28190484208376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>6.448675970464659</v>
+      </c>
+      <c r="M8">
+        <v>38.27934244865207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.127907320534985</v>
+        <v>7.127259207864668</v>
       </c>
       <c r="D9">
-        <v>4.064183013293705</v>
+        <v>4.055297793208381</v>
       </c>
       <c r="E9">
-        <v>5.404259377354428</v>
+        <v>5.402355227753004</v>
       </c>
       <c r="F9">
-        <v>44.83673527190569</v>
+        <v>44.78828727562873</v>
       </c>
       <c r="G9">
-        <v>35.02985853166128</v>
+        <v>35.0734735055484</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>34.51857140149114</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>70.70394994993828</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>6.914275307984731</v>
+        <v>70.69686201096769</v>
       </c>
       <c r="L9">
-        <v>45.22259984626132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>6.912580065550282</v>
+      </c>
+      <c r="M9">
+        <v>45.21772652785609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.054936662548599</v>
+        <v>8.053861482179633</v>
       </c>
       <c r="D10">
-        <v>5.049927377066436</v>
+        <v>5.039324681021273</v>
       </c>
       <c r="E10">
-        <v>5.808888692703012</v>
+        <v>5.810563574607495</v>
       </c>
       <c r="F10">
-        <v>51.47165978947699</v>
+        <v>51.41405225953798</v>
       </c>
       <c r="G10">
-        <v>40.40232165606837</v>
+        <v>40.45113232167829</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>39.76225194925582</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>78.2941089774024</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>7.26578575575599</v>
+        <v>78.28340385564381</v>
       </c>
       <c r="L10">
-        <v>50.15385032578731</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>7.263803433677422</v>
+      </c>
+      <c r="M10">
+        <v>50.14651010950259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.491179628031343</v>
+        <v>8.489829709988014</v>
       </c>
       <c r="D11">
-        <v>5.538428165529576</v>
+        <v>5.52687033076475</v>
       </c>
       <c r="E11">
-        <v>6.076254839375802</v>
+        <v>6.07822218979137</v>
       </c>
       <c r="F11">
-        <v>54.68880622104627</v>
+        <v>54.62617982462463</v>
       </c>
       <c r="G11">
-        <v>43.01130320017966</v>
+        <v>43.06219552600432</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>42.3223140792751</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>81.74373905493584</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>7.510663814048114</v>
+        <v>81.73088507034906</v>
       </c>
       <c r="L11">
-        <v>52.4040287953537</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>7.511361855629368</v>
+      </c>
+      <c r="M11">
+        <v>52.39522097341053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.659989327471276</v>
+        <v>8.658516862483861</v>
       </c>
       <c r="D12">
-        <v>5.731666607848402</v>
+        <v>5.71970851581355</v>
       </c>
       <c r="E12">
-        <v>6.178493088943538</v>
+        <v>6.180576223509055</v>
       </c>
       <c r="F12">
-        <v>55.94903791479717</v>
+        <v>55.88431567605168</v>
       </c>
       <c r="G12">
-        <v>44.03407864284122</v>
+        <v>44.08568516627021</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>43.32780071831544</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>83.05767098764181</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>7.615866084633223</v>
+        <v>83.04389022080274</v>
       </c>
       <c r="L12">
-        <v>53.26275151499434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>7.616573968462142</v>
+      </c>
+      <c r="M12">
+        <v>53.25331015988538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.623440315678749</v>
+        <v>8.621995230253885</v>
       </c>
       <c r="D13">
-        <v>5.689629312606243</v>
+        <v>5.677759456459043</v>
       </c>
       <c r="E13">
-        <v>6.1564174569257</v>
+        <v>6.158475423671934</v>
       </c>
       <c r="F13">
-        <v>55.67547345918378</v>
+        <v>55.61121297846877</v>
       </c>
       <c r="G13">
-        <v>43.81202182861891</v>
+        <v>43.86347866572494</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>43.10941500754781</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>82.77418378863159</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>7.593229314329447</v>
+        <v>82.76060859622312</v>
       </c>
       <c r="L13">
-        <v>53.07739749296793</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>7.593935186734519</v>
+      </c>
+      <c r="M13">
+        <v>53.06809669563365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.50498400119324</v>
+        <v>8.503624428983878</v>
       </c>
       <c r="D14">
-        <v>5.554142035363866</v>
+        <v>5.542552154759303</v>
       </c>
       <c r="E14">
-        <v>6.084641696584145</v>
+        <v>6.086618468867798</v>
       </c>
       <c r="F14">
-        <v>54.79154527793856</v>
+        <v>54.72875095920256</v>
       </c>
       <c r="G14">
-        <v>43.09466718179655</v>
+        <v>43.14562003835999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>42.40423186384923</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>81.8516246640735</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>7.519328790894245</v>
+        <v>81.83869702790804</v>
       </c>
       <c r="L14">
-        <v>52.47450214287743</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>7.520027689018582</v>
+      </c>
+      <c r="M14">
+        <v>52.46564398677725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.432953842551543</v>
+        <v>8.431643953903279</v>
       </c>
       <c r="D15">
-        <v>5.472320997844584</v>
+        <v>5.460897032641603</v>
       </c>
       <c r="E15">
-        <v>6.040828828947616</v>
+        <v>6.042756538146976</v>
       </c>
       <c r="F15">
-        <v>54.25608475529942</v>
+        <v>54.1941601083026</v>
       </c>
       <c r="G15">
-        <v>42.66021886222747</v>
+        <v>42.71085192856554</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>41.97739510173825</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>81.28782557566323</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>7.473994446630805</v>
+        <v>81.27527820888885</v>
       </c>
       <c r="L15">
-        <v>52.10628460489335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>7.474688778439033</v>
+      </c>
+      <c r="M15">
+        <v>52.09768630471402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.02683519857052</v>
+        <v>8.02577585641542</v>
       </c>
       <c r="D16">
-        <v>5.018997317898478</v>
+        <v>5.008452569085245</v>
       </c>
       <c r="E16">
-        <v>5.791515695402345</v>
+        <v>5.793172137896368</v>
       </c>
       <c r="F16">
-        <v>51.26642198519635</v>
+        <v>51.20912005103829</v>
       </c>
       <c r="G16">
-        <v>40.23597525171759</v>
+        <v>40.28464186767734</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>39.59928409815696</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>78.06921958442808</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>7.255171723204294</v>
+        <v>78.05864183167034</v>
       </c>
       <c r="L16">
-        <v>50.00736385354779</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>7.253197684903451</v>
+      </c>
+      <c r="M16">
+        <v>50.00011057091947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.782309731670373</v>
+        <v>7.781379771230047</v>
       </c>
       <c r="D17">
-        <v>4.752612206467511</v>
+        <v>4.742555018526409</v>
       </c>
       <c r="E17">
-        <v>5.639610092957834</v>
+        <v>5.641108475822367</v>
       </c>
       <c r="F17">
-        <v>49.49105593899299</v>
+        <v>49.43633227770813</v>
       </c>
       <c r="G17">
-        <v>38.79747968357356</v>
+        <v>38.84485063195218</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>38.19145767425186</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>76.09866707090899</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>7.162624764859054</v>
+        <v>76.08914668895278</v>
       </c>
       <c r="L17">
-        <v>48.72483627875625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>7.160723741099777</v>
+      </c>
+      <c r="M17">
+        <v>48.71830446741455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.642913747992022</v>
+        <v>7.642051208115316</v>
       </c>
       <c r="D18">
-        <v>4.602970625786992</v>
+        <v>4.593178636840042</v>
       </c>
       <c r="E18">
-        <v>5.552438625623225</v>
+        <v>5.553848970320768</v>
       </c>
       <c r="F18">
-        <v>48.48757372513353</v>
+        <v>48.43425882243181</v>
       </c>
       <c r="G18">
-        <v>37.98475096628677</v>
+        <v>38.03135300770003</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>37.39728778354721</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>74.96433073600612</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>7.109754568916187</v>
+        <v>74.95537450423475</v>
       </c>
       <c r="L18">
-        <v>47.98737438949651</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>7.107896008657526</v>
+      </c>
+      <c r="M18">
+        <v>47.9812273626122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.595894660133486</v>
+        <v>7.595053893622723</v>
       </c>
       <c r="D19">
-        <v>4.552859736761878</v>
+        <v>4.543155213153205</v>
       </c>
       <c r="E19">
-        <v>5.522943367161322</v>
+        <v>5.524324378578971</v>
       </c>
       <c r="F19">
-        <v>48.15052952237013</v>
+        <v>48.0976804276165</v>
       </c>
       <c r="G19">
-        <v>37.71183019553227</v>
+        <v>37.75816850253547</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>37.1308130643328</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>74.57990972315977</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>7.091909611144913</v>
+        <v>74.57113781940006</v>
       </c>
       <c r="L19">
-        <v>47.73758359890227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>7.09006552659897</v>
+      </c>
+      <c r="M19">
+        <v>47.73156227436351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.808201663816086</v>
+        <v>7.807258691581861</v>
       </c>
       <c r="D20">
-        <v>4.780584655414887</v>
+        <v>4.770477215051679</v>
       </c>
       <c r="E20">
-        <v>5.655756259096323</v>
+        <v>5.657271165827535</v>
       </c>
       <c r="F20">
-        <v>49.67814069777904</v>
+        <v>49.6231506468668</v>
       </c>
       <c r="G20">
-        <v>38.94902837595377</v>
+        <v>38.99653987001745</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>38.33964757984705</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>76.30848358225734</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>7.172437783911177</v>
+        <v>76.2988554170191</v>
       </c>
       <c r="L20">
-        <v>48.86130794205116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>7.170528943789824</v>
+      </c>
+      <c r="M20">
+        <v>48.85470260468446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.539663718131067</v>
+        <v>8.538279610152131</v>
       </c>
       <c r="D21">
-        <v>5.593688099164854</v>
+        <v>5.582017183656188</v>
       </c>
       <c r="E21">
-        <v>6.105690841429235</v>
+        <v>6.107691321872584</v>
       </c>
       <c r="F21">
-        <v>55.04989840451091</v>
+        <v>54.98667955987253</v>
       </c>
       <c r="G21">
-        <v>43.30431174406483</v>
+        <v>43.35541504412252</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>42.61026911624056</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>82.12231282171875</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>7.541048505576928</v>
+        <v>82.10919850964891</v>
       </c>
       <c r="L21">
-        <v>52.65134953971511</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>7.541749515861046</v>
+      </c>
+      <c r="M21">
+        <v>52.64236379771204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.040100809855153</v>
+        <v>9.038312908779906</v>
       </c>
       <c r="D22">
-        <v>6.17539625403859</v>
+        <v>6.162464077183489</v>
       </c>
       <c r="E22">
-        <v>6.406042126080442</v>
+        <v>6.40838938412297</v>
       </c>
       <c r="F22">
-        <v>58.81707600619153</v>
+        <v>58.74726308625714</v>
       </c>
       <c r="G22">
-        <v>46.36341314112182</v>
+        <v>46.41639138834052</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>45.62115431352733</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>85.97337379736126</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>7.846630602685395</v>
+        <v>85.95727868820823</v>
       </c>
       <c r="L22">
-        <v>55.17182204126468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>7.84735502945063</v>
+      </c>
+      <c r="M22">
+        <v>55.16079708421322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.770245350991408</v>
+        <v>8.768687309860681</v>
       </c>
       <c r="D23">
-        <v>5.859146510823185</v>
+        <v>5.846916727733049</v>
       </c>
       <c r="E23">
-        <v>6.244883241124024</v>
+        <v>6.247042587456686</v>
       </c>
       <c r="F23">
-        <v>56.77665247079383</v>
+        <v>56.71050920084448</v>
       </c>
       <c r="G23">
-        <v>44.70599729563077</v>
+        <v>44.75803767325323</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>43.98887765224469</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>83.90953029196665</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>7.683680168613261</v>
+        <v>83.89511215768385</v>
       </c>
       <c r="L23">
-        <v>53.81999951720427</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>7.684393697344899</v>
+      </c>
+      <c r="M23">
+        <v>53.81012226245545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.796492334522098</v>
+        <v>7.795555266160726</v>
       </c>
       <c r="D24">
-        <v>4.767927557995189</v>
+        <v>4.757842882928071</v>
       </c>
       <c r="E24">
-        <v>5.648456117964098</v>
+        <v>5.6499635454799</v>
       </c>
       <c r="F24">
-        <v>49.59350701534561</v>
+        <v>49.53863762348026</v>
       </c>
       <c r="G24">
-        <v>38.88046948217812</v>
+        <v>38.92791750823448</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>38.27260429570035</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>76.21363057537509</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>7.168000287722622</v>
+        <v>76.20405127258283</v>
       </c>
       <c r="L24">
-        <v>48.79960986171539</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>7.166094979807829</v>
+      </c>
+      <c r="M24">
+        <v>48.79303785708385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.792148990767702</v>
+        <v>6.791615411150473</v>
       </c>
       <c r="D25">
-        <v>3.72501932768058</v>
+        <v>3.716668430791812</v>
       </c>
       <c r="E25">
-        <v>5.387424066336605</v>
+        <v>5.385547708265384</v>
       </c>
       <c r="F25">
-        <v>42.50728582419904</v>
+        <v>42.46176058954833</v>
       </c>
       <c r="G25">
-        <v>33.14589623183888</v>
+        <v>33.1874763452049</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>32.69161466323941</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>67.86699223654307</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>6.787256765548243</v>
+        <v>67.86096063036776</v>
       </c>
       <c r="L25">
-        <v>43.38566492453496</v>
+        <v>6.785674399588908</v>
+      </c>
+      <c r="M25">
+        <v>43.38151155164348</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.057571359020213</v>
+        <v>7.704364942067348</v>
       </c>
       <c r="D2">
-        <v>3.010567691513241</v>
+        <v>12.12093421534848</v>
       </c>
       <c r="E2">
-        <v>5.374034572471311</v>
+        <v>10.88019425282749</v>
       </c>
       <c r="F2">
-        <v>37.52878562677514</v>
+        <v>67.19436268936769</v>
       </c>
       <c r="G2">
-        <v>29.19141079093665</v>
+        <v>1.934549115005991</v>
       </c>
       <c r="H2">
-        <v>28.84972906100483</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.816287452991761</v>
       </c>
       <c r="K2">
-        <v>61.49193907809282</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.511956843998338</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>39.26845289517864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>45.48657299580602</v>
+      </c>
+      <c r="N2">
+        <v>16.31988099789475</v>
+      </c>
+      <c r="O2">
+        <v>55.05196067390182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.629199195349694</v>
+        <v>7.059232667956245</v>
       </c>
       <c r="D3">
-        <v>2.554434201221637</v>
+        <v>11.1316624031307</v>
       </c>
       <c r="E3">
-        <v>5.386317211539382</v>
+        <v>10.24877051383053</v>
       </c>
       <c r="F3">
-        <v>34.27851539110082</v>
+        <v>62.02339239895562</v>
       </c>
       <c r="G3">
-        <v>26.55965489734481</v>
+        <v>1.969113689224749</v>
       </c>
       <c r="H3">
-        <v>26.34856373843587</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.903662341294686</v>
       </c>
       <c r="K3">
-        <v>56.97613532366764</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.329138066681566</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>36.36044476475982</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>41.98359639427701</v>
+      </c>
+      <c r="N3">
+        <v>15.8471703968042</v>
+      </c>
+      <c r="O3">
+        <v>50.57663083454882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.379147440479788</v>
+        <v>6.657975703820955</v>
       </c>
       <c r="D4">
-        <v>2.282422807898675</v>
+        <v>10.51801097441241</v>
       </c>
       <c r="E4">
-        <v>5.402342414758852</v>
+        <v>9.857921028693276</v>
       </c>
       <c r="F4">
-        <v>32.31286119684624</v>
+        <v>59.00089859711782</v>
       </c>
       <c r="G4">
-        <v>24.96804637694961</v>
+        <v>1.989801736524278</v>
       </c>
       <c r="H4">
-        <v>24.89508471539263</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.957553586850802</v>
       </c>
       <c r="K4">
-        <v>54.09097778858718</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.218012654539132</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>34.50580361308182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>39.77316971540334</v>
+      </c>
+      <c r="N4">
+        <v>15.55378185552875</v>
+      </c>
+      <c r="O4">
+        <v>48.07862948054865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.27789531621503</v>
+        <v>6.492506910092807</v>
       </c>
       <c r="D5">
-        <v>2.202910923245768</v>
+        <v>10.26530059141144</v>
       </c>
       <c r="E5">
-        <v>5.41082540080144</v>
+        <v>9.697369496832108</v>
       </c>
       <c r="F5">
-        <v>31.57172841899179</v>
+        <v>57.78092810350015</v>
       </c>
       <c r="G5">
-        <v>24.32426980241476</v>
+        <v>1.99815433057284</v>
       </c>
       <c r="H5">
-        <v>24.39625360813776</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.97964716008084</v>
       </c>
       <c r="K5">
-        <v>52.88525748630592</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.173000135849636</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>33.73146483611978</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>38.85486893666227</v>
+      </c>
+      <c r="N5">
+        <v>15.43361923449725</v>
+      </c>
+      <c r="O5">
+        <v>47.06873618849814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.261118745680929</v>
+        <v>6.464896656692111</v>
       </c>
       <c r="D6">
-        <v>2.210141875085276</v>
+        <v>10.22315231184578</v>
       </c>
       <c r="E6">
-        <v>5.41234710248797</v>
+        <v>9.670621942153259</v>
       </c>
       <c r="F6">
-        <v>31.45752383435529</v>
+        <v>57.57894966719284</v>
       </c>
       <c r="G6">
-        <v>24.21763483025589</v>
+        <v>1.999537954149279</v>
       </c>
       <c r="H6">
-        <v>24.31436670376388</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.983325571322478</v>
       </c>
       <c r="K6">
-        <v>52.68319152674334</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.16554218874832</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>33.6017346646228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>38.70126435161286</v>
+      </c>
+      <c r="N6">
+        <v>15.4136352728863</v>
+      </c>
+      <c r="O6">
+        <v>46.90143972773792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.377779436687067</v>
+        <v>6.655752798380107</v>
       </c>
       <c r="D7">
-        <v>2.280944768957291</v>
+        <v>10.51461475394262</v>
       </c>
       <c r="E7">
-        <v>5.40244913436067</v>
+        <v>9.855761461273739</v>
       </c>
       <c r="F7">
-        <v>32.30211695121935</v>
+        <v>58.98440342997552</v>
       </c>
       <c r="G7">
-        <v>24.95934598363817</v>
+        <v>1.989914633726137</v>
       </c>
       <c r="H7">
-        <v>24.88829361688866</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.957850929418218</v>
       </c>
       <c r="K7">
-        <v>54.07484055708532</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.21740450394142</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>34.49543717161114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>39.76085908201463</v>
+      </c>
+      <c r="N7">
+        <v>15.55216350151891</v>
+      </c>
+      <c r="O7">
+        <v>48.06498136766103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.898606952856481</v>
+        <v>7.482535618225588</v>
       </c>
       <c r="D8">
-        <v>2.851411673072765</v>
+        <v>11.78038151253105</v>
       </c>
       <c r="E8">
-        <v>5.376391937545472</v>
+        <v>10.66278092523125</v>
       </c>
       <c r="F8">
-        <v>36.40073458175393</v>
+        <v>65.34362256626164</v>
       </c>
       <c r="G8">
-        <v>28.27797459381928</v>
+        <v>1.946617062313039</v>
       </c>
       <c r="H8">
-        <v>27.97851337298913</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.84641262239694</v>
       </c>
       <c r="K8">
-        <v>59.95709759871009</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.448675970464659</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>38.27934244865207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>44.28934381739747</v>
+      </c>
+      <c r="N8">
+        <v>16.15765443409704</v>
+      </c>
+      <c r="O8">
+        <v>53.48658051610583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.127259207864668</v>
+        <v>9.106447532753442</v>
       </c>
       <c r="D9">
-        <v>4.055297793208381</v>
+        <v>14.28487786641741</v>
       </c>
       <c r="E9">
-        <v>5.402355227753004</v>
+        <v>12.25640730770694</v>
       </c>
       <c r="F9">
-        <v>44.78828727562873</v>
+        <v>79.27096675776497</v>
       </c>
       <c r="G9">
-        <v>35.0734735055484</v>
+        <v>1.853722138476364</v>
       </c>
       <c r="H9">
-        <v>34.51857140149114</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.625286220916524</v>
       </c>
       <c r="K9">
-        <v>70.69686201096769</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6.912580065550282</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>45.21772652785609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>52.86690084829581</v>
+      </c>
+      <c r="N9">
+        <v>17.31148363779741</v>
+      </c>
+      <c r="O9">
+        <v>65.19576474187136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.053861482179633</v>
+        <v>10.40659252844122</v>
       </c>
       <c r="D10">
-        <v>5.039324681021273</v>
+        <v>16.31606639198295</v>
       </c>
       <c r="E10">
-        <v>5.810563574607495</v>
+        <v>13.53039365412014</v>
       </c>
       <c r="F10">
-        <v>51.41405225953798</v>
+        <v>90.95376057765637</v>
       </c>
       <c r="G10">
-        <v>40.45113232167829</v>
+        <v>1.771434121140565</v>
       </c>
       <c r="H10">
-        <v>39.76225194925582</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.450951602891751</v>
       </c>
       <c r="K10">
-        <v>78.28340385564381</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>7.263803433677422</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>50.14651010950259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>59.40160065439978</v>
+      </c>
+      <c r="N10">
+        <v>18.12400258607018</v>
+      </c>
+      <c r="O10">
+        <v>74.92844673127451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.489829709988014</v>
+        <v>11.0775539582185</v>
       </c>
       <c r="D11">
-        <v>5.52687033076475</v>
+        <v>17.3780388277063</v>
       </c>
       <c r="E11">
-        <v>6.07822218979137</v>
+        <v>14.18758635443952</v>
       </c>
       <c r="F11">
-        <v>54.62617982462463</v>
+        <v>97.13393165895697</v>
       </c>
       <c r="G11">
-        <v>43.06219552600432</v>
+        <v>1.726033738464787</v>
       </c>
       <c r="H11">
-        <v>42.3223140792751</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.364090763561618</v>
       </c>
       <c r="K11">
-        <v>81.73088507034906</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>7.511361855629368</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>52.39522097341053</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>62.64934992587313</v>
+      </c>
+      <c r="N11">
+        <v>18.47971669708004</v>
+      </c>
+      <c r="O11">
+        <v>80.05690301275121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.658516862483861</v>
+        <v>11.35512424277054</v>
       </c>
       <c r="D12">
-        <v>5.71970851581355</v>
+        <v>17.82097447449844</v>
       </c>
       <c r="E12">
-        <v>6.180576223509055</v>
+        <v>14.45991232106154</v>
       </c>
       <c r="F12">
-        <v>55.88431567605168</v>
+        <v>99.71770375817684</v>
       </c>
       <c r="G12">
-        <v>44.08568516627021</v>
+        <v>1.70663875311171</v>
       </c>
       <c r="H12">
-        <v>43.32780071831544</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.329139430650504</v>
       </c>
       <c r="K12">
-        <v>83.04389022080274</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>7.616573968462142</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>53.25331015988538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>63.96709346091621</v>
+      </c>
+      <c r="N12">
+        <v>18.61108389825877</v>
+      </c>
+      <c r="O12">
+        <v>82.19810871865725</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.621995230253885</v>
+        <v>11.29393386575123</v>
       </c>
       <c r="D13">
-        <v>5.677759456459043</v>
+        <v>17.72312609831182</v>
       </c>
       <c r="E13">
-        <v>6.158475423671934</v>
+        <v>14.39983912667309</v>
       </c>
       <c r="F13">
-        <v>55.61121297846877</v>
+        <v>99.14679757720172</v>
       </c>
       <c r="G13">
-        <v>43.86347866572494</v>
+        <v>1.710945897451004</v>
       </c>
       <c r="H13">
-        <v>43.10941500754781</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.336786323041476</v>
       </c>
       <c r="K13">
-        <v>82.76060859622312</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>7.593935186734519</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>53.06809669563365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>63.67791468931824</v>
+      </c>
+      <c r="N13">
+        <v>18.58298164151639</v>
+      </c>
+      <c r="O13">
+        <v>81.72511407570715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.503624428983878</v>
+        <v>11.0997960387405</v>
       </c>
       <c r="D14">
-        <v>5.542552154759303</v>
+        <v>17.41344690336844</v>
       </c>
       <c r="E14">
-        <v>6.086618468867798</v>
+        <v>14.20939323625747</v>
       </c>
       <c r="F14">
-        <v>54.72875095920256</v>
+        <v>97.3404050528588</v>
       </c>
       <c r="G14">
-        <v>43.14562003835999</v>
+        <v>1.724493044245861</v>
       </c>
       <c r="H14">
-        <v>42.40423186384923</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.361266008808976</v>
       </c>
       <c r="K14">
-        <v>81.83869702790804</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>7.520027689018582</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>52.46564398677725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>62.75550592804863</v>
+      </c>
+      <c r="N14">
+        <v>18.49060514255769</v>
+      </c>
+      <c r="O14">
+        <v>80.22806476718188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.431643953903279</v>
+        <v>10.98453806683856</v>
       </c>
       <c r="D15">
-        <v>5.460897032641603</v>
+        <v>17.23011574616083</v>
       </c>
       <c r="E15">
-        <v>6.042756538146976</v>
+        <v>14.0964128166534</v>
       </c>
       <c r="F15">
-        <v>54.1941601083026</v>
+        <v>96.27155229036501</v>
       </c>
       <c r="G15">
-        <v>42.71085192856554</v>
+        <v>1.732451728973096</v>
       </c>
       <c r="H15">
-        <v>41.97739510173825</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.375946181162979</v>
       </c>
       <c r="K15">
-        <v>81.27527820888885</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>7.474688778439033</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>52.09768630471402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>62.20435072652054</v>
+      </c>
+      <c r="N15">
+        <v>18.43352008530762</v>
+      </c>
+      <c r="O15">
+        <v>79.34190001794212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.02577585641542</v>
+        <v>10.36510704402895</v>
       </c>
       <c r="D16">
-        <v>5.008452569085245</v>
+        <v>16.25076083450187</v>
       </c>
       <c r="E16">
-        <v>5.793172137896368</v>
+        <v>13.48977690164389</v>
       </c>
       <c r="F16">
-        <v>51.20912005103829</v>
+        <v>90.57481466733533</v>
       </c>
       <c r="G16">
-        <v>40.28464186767734</v>
+        <v>1.774173946592443</v>
       </c>
       <c r="H16">
-        <v>39.59928409815696</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.456412520389991</v>
       </c>
       <c r="K16">
-        <v>78.05864183167034</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>7.253197684903451</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>50.00011057091947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>59.1979432465519</v>
+      </c>
+      <c r="N16">
+        <v>18.10039278885971</v>
+      </c>
+      <c r="O16">
+        <v>74.61361571327166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.781379771230047</v>
+        <v>10.01082469860081</v>
       </c>
       <c r="D17">
-        <v>4.742555018526409</v>
+        <v>15.69453091369741</v>
       </c>
       <c r="E17">
-        <v>5.641108475822367</v>
+        <v>13.1428737325816</v>
       </c>
       <c r="F17">
-        <v>49.43633227770813</v>
+        <v>87.35445743169123</v>
       </c>
       <c r="G17">
-        <v>38.84485063195218</v>
+        <v>1.797259919457166</v>
       </c>
       <c r="H17">
-        <v>38.19145767425186</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.50338657649304</v>
       </c>
       <c r="K17">
-        <v>76.08914668895278</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>7.160723741099777</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>48.71830446741455</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>57.44546659585549</v>
+      </c>
+      <c r="N17">
+        <v>17.8918877482649</v>
+      </c>
+      <c r="O17">
+        <v>71.9360775680256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.642051208115316</v>
+        <v>9.813517546255612</v>
       </c>
       <c r="D18">
-        <v>4.593178636840042</v>
+        <v>15.38581787257814</v>
       </c>
       <c r="E18">
-        <v>5.553848970320768</v>
+        <v>12.94961015922857</v>
       </c>
       <c r="F18">
-        <v>48.43425882243181</v>
+        <v>85.57360339831635</v>
       </c>
       <c r="G18">
-        <v>38.03135300770003</v>
+        <v>1.80987774856605</v>
       </c>
       <c r="H18">
-        <v>37.39728778354721</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.529775109646549</v>
       </c>
       <c r="K18">
-        <v>74.95537450423475</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>7.107896008657526</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>47.9812273626122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>56.45929689183752</v>
+      </c>
+      <c r="N18">
+        <v>17.7707635336489</v>
+      </c>
+      <c r="O18">
+        <v>70.45369390202184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.595053893622723</v>
+        <v>9.747621432963809</v>
       </c>
       <c r="D19">
-        <v>4.543155213153205</v>
+        <v>15.2828715836653</v>
       </c>
       <c r="E19">
-        <v>5.524324378578971</v>
+        <v>12.88504955536436</v>
       </c>
       <c r="F19">
-        <v>48.0976804276165</v>
+        <v>84.98091438476996</v>
       </c>
       <c r="G19">
-        <v>37.75816850253547</v>
+        <v>1.814054147106881</v>
       </c>
       <c r="H19">
-        <v>37.1308130643328</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.538619085477839</v>
       </c>
       <c r="K19">
-        <v>74.57113781940006</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>7.09006552659897</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>47.73156227436351</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>56.12833542412898</v>
+      </c>
+      <c r="N19">
+        <v>17.72956906972282</v>
+      </c>
+      <c r="O19">
+        <v>69.9600456331715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.807258691581861</v>
+        <v>10.04781757525095</v>
       </c>
       <c r="D20">
-        <v>4.770477215051679</v>
+        <v>15.75249247276691</v>
       </c>
       <c r="E20">
-        <v>5.657271165827535</v>
+        <v>13.1791019245458</v>
       </c>
       <c r="F20">
-        <v>49.6231506468668</v>
+        <v>87.68936918714077</v>
       </c>
       <c r="G20">
-        <v>38.99653987001745</v>
+        <v>1.79487528511614</v>
       </c>
       <c r="H20">
-        <v>38.33964757984705</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.49845571518083</v>
       </c>
       <c r="K20">
-        <v>76.2988554170191</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>7.170528943789824</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>48.85470260468446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>57.62955653434254</v>
+      </c>
+      <c r="N20">
+        <v>17.91421300818318</v>
+      </c>
+      <c r="O20">
+        <v>72.2147162940087</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.538279610152131</v>
+        <v>11.15601038348589</v>
       </c>
       <c r="D21">
-        <v>5.582017183656188</v>
+        <v>17.50300106183731</v>
       </c>
       <c r="E21">
-        <v>6.107691321872584</v>
+        <v>14.26451794267573</v>
       </c>
       <c r="F21">
-        <v>54.98667955987253</v>
+        <v>97.86268762860159</v>
       </c>
       <c r="G21">
-        <v>43.35541504412252</v>
+        <v>1.720588719622404</v>
       </c>
       <c r="H21">
-        <v>42.61026911624056</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.354144755740549</v>
       </c>
       <c r="K21">
-        <v>82.10919850964891</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>7.541749515861046</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>52.64236379771204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>63.0233670925674</v>
+      </c>
+      <c r="N21">
+        <v>18.51784827212151</v>
+      </c>
+      <c r="O21">
+        <v>80.66098116875024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.038312908779906</v>
+        <v>12.04095876946462</v>
       </c>
       <c r="D22">
-        <v>6.162464077183489</v>
+        <v>18.92664441061694</v>
       </c>
       <c r="E22">
-        <v>6.40838938412297</v>
+        <v>15.13565428091898</v>
       </c>
       <c r="F22">
-        <v>58.74726308625714</v>
+        <v>106.1655766387418</v>
       </c>
       <c r="G22">
-        <v>46.41639138834052</v>
+        <v>1.657111160785383</v>
       </c>
       <c r="H22">
-        <v>45.62115431352733</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.246113559667526</v>
       </c>
       <c r="K22">
-        <v>85.95727868820823</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>7.84735502945063</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>55.16079708421322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>67.15648110293569</v>
+      </c>
+      <c r="N22">
+        <v>18.89011051724951</v>
+      </c>
+      <c r="O22">
+        <v>87.53628376562493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.768687309860681</v>
+        <v>11.54395795698819</v>
       </c>
       <c r="D23">
-        <v>5.846916727733049</v>
+        <v>18.12370577454077</v>
       </c>
       <c r="E23">
-        <v>6.247042587456686</v>
+        <v>14.64547477143387</v>
       </c>
       <c r="F23">
-        <v>56.71050920084448</v>
+        <v>101.4841226778875</v>
       </c>
       <c r="G23">
-        <v>44.75803767325323</v>
+        <v>1.693233107329059</v>
       </c>
       <c r="H23">
-        <v>43.98887765224469</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.305766671803718</v>
       </c>
       <c r="K23">
-        <v>83.89511215768385</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>7.684393697344899</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>53.81012226245545</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>64.85476525853419</v>
+      </c>
+      <c r="N23">
+        <v>18.69462750011311</v>
+      </c>
+      <c r="O23">
+        <v>83.66118465535423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.795555266160726</v>
+        <v>10.03107390278566</v>
       </c>
       <c r="D24">
-        <v>4.757842882928071</v>
+        <v>15.72625471263872</v>
       </c>
       <c r="E24">
-        <v>5.6499635454799</v>
+        <v>13.16270458938166</v>
       </c>
       <c r="F24">
-        <v>49.53863762348026</v>
+        <v>87.53774229392779</v>
       </c>
       <c r="G24">
-        <v>38.92791750823448</v>
+        <v>1.795955359241323</v>
       </c>
       <c r="H24">
-        <v>38.27260429570035</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.50068682525217</v>
       </c>
       <c r="K24">
-        <v>76.20405127258283</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>7.166094979807829</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>48.79303785708385</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>57.54626561447614</v>
+      </c>
+      <c r="N24">
+        <v>17.90412358599942</v>
+      </c>
+      <c r="O24">
+        <v>72.08857167668596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.791615411150473</v>
+        <v>8.659154546599378</v>
       </c>
       <c r="D25">
-        <v>3.716668430791812</v>
+        <v>13.59211749684821</v>
       </c>
       <c r="E25">
-        <v>5.385547708265384</v>
+        <v>11.81739639535229</v>
       </c>
       <c r="F25">
-        <v>42.46176058954833</v>
+        <v>75.35297173362953</v>
       </c>
       <c r="G25">
-        <v>33.1874763452049</v>
+        <v>1.880375002085501</v>
       </c>
       <c r="H25">
-        <v>32.69161466323941</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.686169522854819</v>
       </c>
       <c r="K25">
-        <v>67.86096063036776</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.785674399588908</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>43.38151155164348</v>
+        <v>50.54853324830842</v>
+      </c>
+      <c r="N25">
+        <v>17.00421209934582</v>
+      </c>
+      <c r="O25">
+        <v>61.91629815248619</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.704364942067348</v>
+        <v>4.008222300014483</v>
       </c>
       <c r="D2">
-        <v>12.12093421534848</v>
+        <v>4.023242394518173</v>
       </c>
       <c r="E2">
-        <v>10.88019425282749</v>
+        <v>6.997955438955183</v>
       </c>
       <c r="F2">
-        <v>67.19436268936769</v>
+        <v>50.96926709039362</v>
       </c>
       <c r="G2">
-        <v>1.934549115005991</v>
+        <v>77.27070697954869</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>20.0519869617489</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>37.18552630918879</v>
       </c>
       <c r="J2">
-        <v>4.816287452991761</v>
+        <v>6.198928300777801</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.732412796492653</v>
       </c>
       <c r="M2">
-        <v>45.48657299580602</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>16.31988099789475</v>
+        <v>25.60720851682374</v>
       </c>
       <c r="O2">
-        <v>55.05196067390182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.059232667956245</v>
+        <v>4.021610189517824</v>
       </c>
       <c r="D3">
-        <v>11.1316624031307</v>
+        <v>3.92921447469251</v>
       </c>
       <c r="E3">
-        <v>10.24877051383053</v>
+        <v>6.986462192038551</v>
       </c>
       <c r="F3">
-        <v>62.02339239895562</v>
+        <v>48.08272518528712</v>
       </c>
       <c r="G3">
-        <v>1.969113689224749</v>
+        <v>72.38739080079051</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>19.08768903050787</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>35.17062153561525</v>
       </c>
       <c r="J3">
-        <v>4.903662341294686</v>
+        <v>6.174994697444614</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.747033859597331</v>
       </c>
       <c r="M3">
-        <v>41.98359639427701</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>15.8471703968042</v>
+        <v>24.22561817997339</v>
       </c>
       <c r="O3">
-        <v>50.57663083454882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.657975703820955</v>
+        <v>4.031132723759512</v>
       </c>
       <c r="D4">
-        <v>10.51801097441241</v>
+        <v>3.871907960547828</v>
       </c>
       <c r="E4">
-        <v>9.857921028693276</v>
+        <v>6.983598960864154</v>
       </c>
       <c r="F4">
-        <v>59.00089859711782</v>
+        <v>46.29382814374289</v>
       </c>
       <c r="G4">
-        <v>1.989801736524278</v>
+        <v>69.33276362984336</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>18.49783005581277</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>33.92652645948269</v>
       </c>
       <c r="J4">
-        <v>4.957553586850802</v>
+        <v>6.164524498336836</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.759011925596194</v>
       </c>
       <c r="M4">
-        <v>39.77316971540334</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>15.55378185552875</v>
+        <v>23.33595077662917</v>
       </c>
       <c r="O4">
-        <v>48.07862948054865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.492506910092807</v>
+        <v>4.035327292375048</v>
       </c>
       <c r="D5">
-        <v>10.26530059141144</v>
+        <v>3.848620435415162</v>
       </c>
       <c r="E5">
-        <v>9.697369496832108</v>
+        <v>6.983439412808938</v>
       </c>
       <c r="F5">
-        <v>57.78092810350015</v>
+        <v>45.5608909373697</v>
       </c>
       <c r="G5">
-        <v>1.99815433057284</v>
+        <v>68.07395465342813</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>18.25808585732024</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>33.41796540613171</v>
       </c>
       <c r="J5">
-        <v>4.97964716008084</v>
+        <v>6.161266563479406</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.764618093531375</v>
       </c>
       <c r="M5">
-        <v>38.85486893666227</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>15.43361923449725</v>
+        <v>22.96331756195408</v>
       </c>
       <c r="O5">
-        <v>47.06873618849814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.464896656692111</v>
+        <v>4.036042410356579</v>
       </c>
       <c r="D6">
-        <v>10.22315231184578</v>
+        <v>3.844756400186144</v>
       </c>
       <c r="E6">
-        <v>9.670621942153259</v>
+        <v>6.983472446486894</v>
       </c>
       <c r="F6">
-        <v>57.57894966719284</v>
+        <v>45.43895973981913</v>
       </c>
       <c r="G6">
-        <v>1.999537954149279</v>
+        <v>67.86409485279907</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>18.21831778196117</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>33.3334315134393</v>
       </c>
       <c r="J6">
-        <v>4.983325571322478</v>
+        <v>6.160785026971858</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.765591972906382</v>
       </c>
       <c r="M6">
-        <v>38.70126435161286</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>15.4136352728863</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>46.90143972773792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.655752798380107</v>
+        <v>4.031188037864058</v>
       </c>
       <c r="D7">
-        <v>10.51461475394262</v>
+        <v>3.871593683080542</v>
       </c>
       <c r="E7">
-        <v>9.855761461273739</v>
+        <v>6.983592790471578</v>
       </c>
       <c r="F7">
-        <v>58.98440342997552</v>
+        <v>46.28395902039271</v>
       </c>
       <c r="G7">
-        <v>1.989914633726137</v>
+        <v>69.31584321374294</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>18.49459409708228</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>33.91967390133168</v>
       </c>
       <c r="J7">
-        <v>4.957850929418218</v>
+        <v>6.164476543945678</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.75908463373013</v>
       </c>
       <c r="M7">
-        <v>39.76085908201463</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>15.55216350151891</v>
+        <v>23.33096569062624</v>
       </c>
       <c r="O7">
-        <v>48.06498136766103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.482535618225588</v>
+        <v>4.012559411800684</v>
       </c>
       <c r="D8">
-        <v>11.78038151253105</v>
+        <v>3.99070543789953</v>
       </c>
       <c r="E8">
-        <v>10.66278092523125</v>
+        <v>6.993092390373009</v>
       </c>
       <c r="F8">
-        <v>65.34362256626164</v>
+        <v>49.97747344385765</v>
       </c>
       <c r="G8">
-        <v>1.946617062313039</v>
+        <v>75.59855713975891</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>19.71905386749545</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>36.49227087827999</v>
       </c>
       <c r="J8">
-        <v>4.84641262239694</v>
+        <v>6.189765248471075</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.736812619599618</v>
       </c>
       <c r="M8">
-        <v>44.28934381739747</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>16.15765443409704</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>53.48658051610583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.106447532753442</v>
+        <v>3.987096552111684</v>
       </c>
       <c r="D9">
-        <v>14.28487786641741</v>
+        <v>4.230001989537977</v>
       </c>
       <c r="E9">
-        <v>12.25640730770694</v>
+        <v>7.047380250855954</v>
       </c>
       <c r="F9">
-        <v>79.27096675776497</v>
+        <v>57.09381831936133</v>
       </c>
       <c r="G9">
-        <v>1.853722138476364</v>
+        <v>87.49058987618614</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>22.13923477360929</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>41.48473819010825</v>
       </c>
       <c r="J9">
-        <v>4.625286220916524</v>
+        <v>6.275592338524866</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.718458387153192</v>
       </c>
       <c r="M9">
-        <v>52.86690084829581</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>17.31148363779741</v>
+        <v>28.34722074380647</v>
       </c>
       <c r="O9">
-        <v>65.19576474187136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.40659252844122</v>
+        <v>3.9764267238622</v>
       </c>
       <c r="D10">
-        <v>16.31606639198295</v>
+        <v>4.413428665523135</v>
       </c>
       <c r="E10">
-        <v>13.53039365412014</v>
+        <v>7.112826884979448</v>
       </c>
       <c r="F10">
-        <v>90.95376057765637</v>
+        <v>62.27483430557995</v>
       </c>
       <c r="G10">
-        <v>1.771434121140565</v>
+        <v>96.05666248200686</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>24.00707406707809</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>45.14094566052776</v>
       </c>
       <c r="J10">
-        <v>4.450951602891751</v>
+        <v>6.365107071604966</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.72286741532506</v>
       </c>
       <c r="M10">
-        <v>59.40160065439978</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>18.12400258607018</v>
+        <v>30.48602834203865</v>
       </c>
       <c r="O10">
-        <v>74.92844673127451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.0775539582185</v>
+        <v>3.973711930724502</v>
       </c>
       <c r="D11">
-        <v>17.3780388277063</v>
+        <v>4.499789174716243</v>
       </c>
       <c r="E11">
-        <v>14.18758635443952</v>
+        <v>7.149193012995957</v>
       </c>
       <c r="F11">
-        <v>97.13393165895697</v>
+        <v>64.73354469756235</v>
       </c>
       <c r="G11">
-        <v>1.726033738464787</v>
+        <v>99.97241910847342</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>24.97360794458553</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>46.9723188153813</v>
       </c>
       <c r="J11">
-        <v>4.364090763561618</v>
+        <v>6.41277609603361</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.729437841755527</v>
       </c>
       <c r="M11">
-        <v>62.64934992587313</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>18.47971669708004</v>
+        <v>31.41016321374476</v>
       </c>
       <c r="O11">
-        <v>80.05690301275121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.35512424277054</v>
+        <v>3.973035869606884</v>
       </c>
       <c r="D12">
-        <v>17.82097447449844</v>
+        <v>4.533052493680701</v>
       </c>
       <c r="E12">
-        <v>14.45991232106154</v>
+        <v>7.164019815385244</v>
       </c>
       <c r="F12">
-        <v>99.71770375817684</v>
+        <v>65.67635440602075</v>
       </c>
       <c r="G12">
-        <v>1.70663875311171</v>
+        <v>101.4549567168309</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>25.33975026895293</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>47.67203444986153</v>
       </c>
       <c r="J12">
-        <v>4.329139430650504</v>
+        <v>6.431951569778446</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.732652950695242</v>
       </c>
       <c r="M12">
-        <v>63.96709346091621</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>18.61108389825877</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>82.19810871865725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.29393386575123</v>
+        <v>3.973164977695482</v>
       </c>
       <c r="D13">
-        <v>17.72312609831182</v>
+        <v>4.525861062596773</v>
       </c>
       <c r="E13">
-        <v>14.39983912667309</v>
+        <v>7.160777692461154</v>
       </c>
       <c r="F13">
-        <v>99.14679757720172</v>
+        <v>65.47324738776921</v>
       </c>
       <c r="G13">
-        <v>1.710945897451004</v>
+        <v>101.1356170780166</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>25.2608739454773</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>47.52132790535167</v>
       </c>
       <c r="J13">
-        <v>4.336786323041476</v>
+        <v>6.427769503460047</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.731926901198058</v>
       </c>
       <c r="M13">
-        <v>63.67791468931824</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>18.58298164151639</v>
+        <v>31.67947945617568</v>
       </c>
       <c r="O13">
-        <v>81.72511407570715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.0997960387405</v>
+        <v>3.97364895876052</v>
       </c>
       <c r="D14">
-        <v>17.41344690336844</v>
+        <v>4.502513593573076</v>
       </c>
       <c r="E14">
-        <v>14.20939323625747</v>
+        <v>7.150390969671299</v>
       </c>
       <c r="F14">
-        <v>97.3404050528588</v>
+        <v>64.81108859456101</v>
       </c>
       <c r="G14">
-        <v>1.724493044245861</v>
+        <v>100.0943722935125</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>25.00372265578511</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>47.02988296089109</v>
       </c>
       <c r="J14">
-        <v>4.361266008808976</v>
+        <v>6.414330329600361</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.729687323063642</v>
       </c>
       <c r="M14">
-        <v>62.75550592804863</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>18.49060514255769</v>
+        <v>31.43851144188476</v>
       </c>
       <c r="O14">
-        <v>80.22806476718188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.98453806683856</v>
+        <v>3.973992772214895</v>
       </c>
       <c r="D15">
-        <v>17.23011574616083</v>
+        <v>4.488290402540208</v>
       </c>
       <c r="E15">
-        <v>14.0964128166534</v>
+        <v>7.144169854406544</v>
       </c>
       <c r="F15">
-        <v>96.27155229036501</v>
+        <v>64.40561907014441</v>
       </c>
       <c r="G15">
-        <v>1.732451728973096</v>
+        <v>99.45665433760637</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>24.84625494827912</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>46.72885690534949</v>
       </c>
       <c r="J15">
-        <v>4.375946181162979</v>
+        <v>6.406249024768934</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.728412541403739</v>
       </c>
       <c r="M15">
-        <v>62.20435072652054</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>18.43352008530762</v>
+        <v>31.28998244549471</v>
       </c>
       <c r="O15">
-        <v>79.34190001794212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.36510704402895</v>
+        <v>3.976650714719295</v>
       </c>
       <c r="D16">
-        <v>16.25076083450187</v>
+        <v>4.40785474864327</v>
       </c>
       <c r="E16">
-        <v>13.48977690164389</v>
+        <v>7.110591676219716</v>
       </c>
       <c r="F16">
-        <v>90.57481466733533</v>
+        <v>62.12076840972467</v>
       </c>
       <c r="G16">
-        <v>1.774173946592443</v>
+        <v>95.80052674167207</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>23.94388056361739</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>45.03201460537979</v>
       </c>
       <c r="J16">
-        <v>4.456412520389991</v>
+        <v>6.362141718583231</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.722535596639011</v>
       </c>
       <c r="M16">
-        <v>59.1979432465519</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>18.10039278885971</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>74.61361571327166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.01082469860081</v>
+        <v>3.9788571814644</v>
       </c>
       <c r="D17">
-        <v>15.69453091369741</v>
+        <v>4.359346824892431</v>
       </c>
       <c r="E17">
-        <v>13.1428737325816</v>
+        <v>7.091751557005309</v>
       </c>
       <c r="F17">
-        <v>87.35445743169123</v>
+        <v>60.7711858699453</v>
       </c>
       <c r="G17">
-        <v>1.797259919457166</v>
+        <v>93.55859340514098</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>23.41380594831909</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>44.07831406774778</v>
       </c>
       <c r="J17">
-        <v>4.50338657649304</v>
+        <v>6.336944168997376</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.720145412000054</v>
       </c>
       <c r="M17">
-        <v>57.44546659585549</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>17.8918877482649</v>
+        <v>29.88120505119274</v>
       </c>
       <c r="O17">
-        <v>71.9360775680256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.813517546255612</v>
+        <v>3.980324371893637</v>
       </c>
       <c r="D18">
-        <v>15.38581787257814</v>
+        <v>4.331710822529376</v>
       </c>
       <c r="E18">
-        <v>12.94961015922857</v>
+        <v>7.081528379392872</v>
       </c>
       <c r="F18">
-        <v>85.57360339831635</v>
+        <v>59.99517610305099</v>
       </c>
       <c r="G18">
-        <v>1.80987774856605</v>
+        <v>92.28157287260291</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>23.14370572491725</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>43.53036768058149</v>
       </c>
       <c r="J18">
-        <v>4.529775109646549</v>
+        <v>6.323096427856154</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.719195348749324</v>
       </c>
       <c r="M18">
-        <v>56.45929689183752</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>17.7707635336489</v>
+        <v>29.56404287680425</v>
       </c>
       <c r="O18">
-        <v>70.45369390202184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.747621432963809</v>
+        <v>3.980853990341004</v>
       </c>
       <c r="D19">
-        <v>15.2828715836653</v>
+        <v>4.322395453901467</v>
       </c>
       <c r="E19">
-        <v>12.88504955536436</v>
+        <v>7.078169356014513</v>
       </c>
       <c r="F19">
-        <v>84.98091438476996</v>
+        <v>59.73242719974752</v>
       </c>
       <c r="G19">
-        <v>1.814054147106881</v>
+        <v>91.84878956892729</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>23.05238445599013</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>43.34491295016555</v>
       </c>
       <c r="J19">
-        <v>4.538619085477839</v>
+        <v>6.318515232531547</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.718944687621104</v>
       </c>
       <c r="M19">
-        <v>56.12833542412898</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>17.72956906972282</v>
+        <v>29.45587200880252</v>
       </c>
       <c r="O19">
-        <v>69.9600456331715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.04781757525095</v>
+        <v>3.978601513159842</v>
       </c>
       <c r="D20">
-        <v>15.75249247276691</v>
+        <v>4.36448229950531</v>
       </c>
       <c r="E20">
-        <v>13.1791019245458</v>
+        <v>7.093692948186934</v>
       </c>
       <c r="F20">
-        <v>87.68936918714077</v>
+        <v>60.91481577051005</v>
       </c>
       <c r="G20">
-        <v>1.79487528511614</v>
+        <v>93.79476661906492</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>23.46386083124084</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>44.17976746074402</v>
       </c>
       <c r="J20">
-        <v>4.49845571518083</v>
+        <v>6.339558888313452</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.720355428443376</v>
       </c>
       <c r="M20">
-        <v>57.62955653434254</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>17.91421300818318</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>72.2147162940087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.15601038348589</v>
+        <v>3.973496834655206</v>
       </c>
       <c r="D21">
-        <v>17.50300106183731</v>
+        <v>4.509354789429876</v>
       </c>
       <c r="E21">
-        <v>14.26451794267573</v>
+        <v>7.153412182665578</v>
       </c>
       <c r="F21">
-        <v>97.86268762860159</v>
+        <v>65.00555089225492</v>
       </c>
       <c r="G21">
-        <v>1.720588719622404</v>
+        <v>100.4001885437702</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>25.07924313833831</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>47.17422932472726</v>
       </c>
       <c r="J21">
-        <v>4.354144755740549</v>
+        <v>6.418246098067599</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.730324774231361</v>
       </c>
       <c r="M21">
-        <v>63.0233670925674</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>18.51784827212151</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>80.66098116875024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.04095876946462</v>
+        <v>3.972242500037908</v>
       </c>
       <c r="D22">
-        <v>18.92664441061694</v>
+        <v>4.607399462594135</v>
       </c>
       <c r="E22">
-        <v>15.13565428091898</v>
+        <v>7.198663071601009</v>
       </c>
       <c r="F22">
-        <v>106.1655766387418</v>
+        <v>67.75313180334592</v>
       </c>
       <c r="G22">
-        <v>1.657111160785383</v>
+        <v>104.7190541568759</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>26.14624714776077</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>49.21207732095201</v>
       </c>
       <c r="J22">
-        <v>4.246113559667526</v>
+        <v>6.476304987060029</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.741122267646057</v>
       </c>
       <c r="M22">
-        <v>67.15648110293569</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>18.89011051724951</v>
+        <v>32.49403281050594</v>
       </c>
       <c r="O22">
-        <v>87.53628376562493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.54395795698819</v>
+        <v>3.972703387371337</v>
       </c>
       <c r="D23">
-        <v>18.12370577454077</v>
+        <v>4.554706469285317</v>
       </c>
       <c r="E23">
-        <v>14.64547477143387</v>
+        <v>7.173900952524509</v>
       </c>
       <c r="F23">
-        <v>101.4841226778875</v>
+        <v>66.28553338547418</v>
       </c>
       <c r="G23">
-        <v>1.693233107329059</v>
+        <v>102.4126265634031</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>25.57632196383985</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>48.12394817062499</v>
       </c>
       <c r="J23">
-        <v>4.305766671803718</v>
+        <v>6.444662201738879</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.734940250972734</v>
       </c>
       <c r="M23">
-        <v>64.85476525853419</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>18.69462750011311</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>83.66118465535423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.03107390278566</v>
+        <v>3.978716485188252</v>
       </c>
       <c r="D24">
-        <v>15.72625471263872</v>
+        <v>4.36215977707612</v>
       </c>
       <c r="E24">
-        <v>13.16270458938166</v>
+        <v>7.092813358462465</v>
       </c>
       <c r="F24">
-        <v>87.53774229392779</v>
+        <v>60.84988118423386</v>
       </c>
       <c r="G24">
-        <v>1.795955359241323</v>
+        <v>93.68800064984906</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>23.44122879915166</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>44.13389938566737</v>
       </c>
       <c r="J24">
-        <v>4.50068682525217</v>
+        <v>6.338374793484192</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.720259164210888</v>
       </c>
       <c r="M24">
-        <v>57.54626561447614</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>17.90412358599942</v>
+        <v>29.91317649911919</v>
       </c>
       <c r="O24">
-        <v>72.08857167668596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.659154546599378</v>
+        <v>3.992683764326536</v>
       </c>
       <c r="D25">
-        <v>13.59211749684821</v>
+        <v>4.164282244540145</v>
       </c>
       <c r="E25">
-        <v>11.81739639535229</v>
+        <v>7.028514396542036</v>
       </c>
       <c r="F25">
-        <v>75.35297173362953</v>
+        <v>55.18037751471086</v>
       </c>
       <c r="G25">
-        <v>1.880375002085501</v>
+        <v>84.31492145129252</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>21.48189226217031</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>40.13855205133924</v>
       </c>
       <c r="J25">
-        <v>4.686169522854819</v>
+        <v>6.248082181768746</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.720481797459292</v>
       </c>
       <c r="M25">
-        <v>50.54853324830842</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>17.00421209934582</v>
+        <v>27.51708508088412</v>
       </c>
       <c r="O25">
-        <v>61.91629815248619</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.008222300014483</v>
+        <v>7.240679918064298</v>
       </c>
       <c r="D2">
-        <v>4.023242394518173</v>
+        <v>5.82196662681687</v>
       </c>
       <c r="E2">
-        <v>6.997955438955183</v>
+        <v>12.46065815797078</v>
       </c>
       <c r="F2">
-        <v>50.96926709039362</v>
+        <v>53.88144777410852</v>
       </c>
       <c r="G2">
-        <v>77.27070697954869</v>
+        <v>71.55053117575966</v>
       </c>
       <c r="H2">
-        <v>20.0519869617489</v>
+        <v>24.17023702721616</v>
       </c>
       <c r="I2">
-        <v>37.18552630918879</v>
+        <v>40.98355024799</v>
       </c>
       <c r="J2">
-        <v>6.198928300777801</v>
+        <v>10.92775514833054</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.732412796492653</v>
+        <v>10.45052131975543</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883691</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.021610189517824</v>
+        <v>7.253979846253294</v>
       </c>
       <c r="D3">
-        <v>3.92921447469251</v>
+        <v>5.803469237481298</v>
       </c>
       <c r="E3">
-        <v>6.986462192038551</v>
+        <v>12.4895881847224</v>
       </c>
       <c r="F3">
-        <v>48.08272518528712</v>
+        <v>53.47938016116156</v>
       </c>
       <c r="G3">
-        <v>72.38739080079051</v>
+        <v>70.64340532633348</v>
       </c>
       <c r="H3">
-        <v>19.08768903050787</v>
+        <v>24.08215247237939</v>
       </c>
       <c r="I3">
-        <v>35.17062153561525</v>
+        <v>40.73299499319394</v>
       </c>
       <c r="J3">
-        <v>6.174994697444614</v>
+        <v>10.95296466775718</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.747033859597331</v>
+        <v>10.47620201549809</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502705</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.031132723759512</v>
+        <v>7.262716213273668</v>
       </c>
       <c r="D4">
-        <v>3.871907960547828</v>
+        <v>5.791878923516001</v>
       </c>
       <c r="E4">
-        <v>6.983598960864154</v>
+        <v>12.50899615333653</v>
       </c>
       <c r="F4">
-        <v>46.29382814374289</v>
+        <v>53.24722460944285</v>
       </c>
       <c r="G4">
-        <v>69.33276362984336</v>
+        <v>70.10457091085885</v>
       </c>
       <c r="H4">
-        <v>18.49783005581277</v>
+        <v>24.03432458196443</v>
       </c>
       <c r="I4">
-        <v>33.92652645948269</v>
+        <v>40.59028273905867</v>
       </c>
       <c r="J4">
-        <v>6.164524498336836</v>
+        <v>10.97000095944372</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.759011925596194</v>
+        <v>10.49323879232871</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896364</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.035327292375048</v>
+        <v>7.266420037099855</v>
       </c>
       <c r="D5">
-        <v>3.848620435415162</v>
+        <v>5.787096938839175</v>
       </c>
       <c r="E5">
-        <v>6.983439412808938</v>
+        <v>12.51731877923831</v>
       </c>
       <c r="F5">
-        <v>45.5608909373697</v>
+        <v>53.15639101174041</v>
       </c>
       <c r="G5">
-        <v>68.07395465342813</v>
+        <v>69.88979535565943</v>
       </c>
       <c r="H5">
-        <v>18.25808585732024</v>
+        <v>24.01641548997424</v>
       </c>
       <c r="I5">
-        <v>33.41796540613171</v>
+        <v>40.5349625505344</v>
       </c>
       <c r="J5">
-        <v>6.161266563479406</v>
+        <v>10.97733491058785</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.764618093531375</v>
+        <v>10.50050077123841</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188765</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.036042410356579</v>
+        <v>7.267043741598322</v>
       </c>
       <c r="D6">
-        <v>3.844756400186144</v>
+        <v>5.78629933179792</v>
       </c>
       <c r="E6">
-        <v>6.983472446486894</v>
+        <v>12.51872573618084</v>
       </c>
       <c r="F6">
-        <v>45.43895973981913</v>
+        <v>53.14153789802702</v>
       </c>
       <c r="G6">
-        <v>67.86409485279907</v>
+        <v>69.85442899561212</v>
       </c>
       <c r="H6">
-        <v>18.21831778196117</v>
+        <v>24.01353738982078</v>
       </c>
       <c r="I6">
-        <v>33.3334315134393</v>
+        <v>40.52594897505973</v>
       </c>
       <c r="J6">
-        <v>6.160785026971858</v>
+        <v>10.97857635071194</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.765591972906382</v>
+        <v>10.50172591506596</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.031188037864058</v>
+        <v>7.262765582145795</v>
       </c>
       <c r="D7">
-        <v>3.871593683080542</v>
+        <v>5.791814670616975</v>
       </c>
       <c r="E7">
-        <v>6.983592790471578</v>
+        <v>12.50910671986518</v>
       </c>
       <c r="F7">
-        <v>46.28395902039271</v>
+        <v>53.24598423564453</v>
       </c>
       <c r="G7">
-        <v>69.31584321374294</v>
+        <v>70.10165461186129</v>
       </c>
       <c r="H7">
-        <v>18.49459409708228</v>
+        <v>24.03407664256463</v>
       </c>
       <c r="I7">
-        <v>33.91967390133168</v>
+        <v>40.58952514192086</v>
       </c>
       <c r="J7">
-        <v>6.164476543945678</v>
+        <v>10.97009828257184</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.75908463373013</v>
+        <v>10.49333543642013</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304766463</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.012559411800684</v>
+        <v>7.245147584407842</v>
       </c>
       <c r="D8">
-        <v>3.99070543789953</v>
+        <v>5.815636878004722</v>
       </c>
       <c r="E8">
-        <v>6.993092390373009</v>
+        <v>12.47029192098302</v>
       </c>
       <c r="F8">
-        <v>49.97747344385765</v>
+        <v>53.73980567169919</v>
       </c>
       <c r="G8">
-        <v>75.59855713975891</v>
+        <v>71.2341364771066</v>
       </c>
       <c r="H8">
-        <v>19.71905386749545</v>
+        <v>24.13857231598888</v>
       </c>
       <c r="I8">
-        <v>36.49227087827999</v>
+        <v>40.89487285550817</v>
       </c>
       <c r="J8">
-        <v>6.189765248471075</v>
+        <v>10.93612404254448</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.736812619599618</v>
+        <v>10.4591128923743</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656866</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.987096552111684</v>
+        <v>7.215108822380648</v>
       </c>
       <c r="D9">
-        <v>4.230001989537977</v>
+        <v>5.860518890367791</v>
       </c>
       <c r="E9">
-        <v>7.047380250855954</v>
+        <v>12.40722232928409</v>
       </c>
       <c r="F9">
-        <v>57.09381831936133</v>
+        <v>54.82147432476117</v>
       </c>
       <c r="G9">
-        <v>87.49058987618614</v>
+        <v>73.58779030816854</v>
       </c>
       <c r="H9">
-        <v>22.13923477360929</v>
+        <v>24.39269338200491</v>
       </c>
       <c r="I9">
-        <v>41.48473819010825</v>
+        <v>41.58009133903944</v>
       </c>
       <c r="J9">
-        <v>6.275592338524866</v>
+        <v>10.88186553487712</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.718458387153192</v>
+        <v>10.40205533037962</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380647</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.9764267238622</v>
+        <v>7.195769984866931</v>
       </c>
       <c r="D10">
-        <v>4.413428665523135</v>
+        <v>5.8923976990045</v>
       </c>
       <c r="E10">
-        <v>7.112826884979448</v>
+        <v>12.36883266751566</v>
       </c>
       <c r="F10">
-        <v>62.27483430557995</v>
+        <v>55.68014242145632</v>
       </c>
       <c r="G10">
-        <v>96.05666248200686</v>
+        <v>75.38261594773743</v>
       </c>
       <c r="H10">
-        <v>24.00707406707809</v>
+        <v>24.60868663556973</v>
       </c>
       <c r="I10">
-        <v>45.14094566052776</v>
+        <v>42.13339779608805</v>
       </c>
       <c r="J10">
-        <v>6.365107071604966</v>
+        <v>10.84954933826331</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.72286741532506</v>
+        <v>10.36624493908714</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.973711930724502</v>
+        <v>7.187561265708002</v>
       </c>
       <c r="D11">
-        <v>4.499789174716243</v>
+        <v>5.906666910723553</v>
       </c>
       <c r="E11">
-        <v>7.149193012995957</v>
+        <v>12.3530928670554</v>
       </c>
       <c r="F11">
-        <v>64.73354469756235</v>
+        <v>56.0834620339088</v>
       </c>
       <c r="G11">
-        <v>99.97241910847342</v>
+        <v>76.21001617407893</v>
       </c>
       <c r="H11">
-        <v>24.97360794458553</v>
+        <v>24.71311884555069</v>
       </c>
       <c r="I11">
-        <v>46.9723188153813</v>
+        <v>42.39525773261941</v>
       </c>
       <c r="J11">
-        <v>6.41277609603361</v>
+        <v>10.83648883126462</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.729437841755527</v>
+        <v>10.3512767649242</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.973035869606884</v>
+        <v>7.184537182689872</v>
       </c>
       <c r="D12">
-        <v>4.533052493680701</v>
+        <v>5.912037162253204</v>
       </c>
       <c r="E12">
-        <v>7.164019815385244</v>
+        <v>12.34738042714542</v>
       </c>
       <c r="F12">
-        <v>65.67635440602075</v>
+        <v>56.23790833005934</v>
       </c>
       <c r="G12">
-        <v>101.4549567168309</v>
+        <v>76.5246205168887</v>
       </c>
       <c r="H12">
-        <v>25.33975026895293</v>
+        <v>24.75353391884827</v>
       </c>
       <c r="I12">
-        <v>47.67203444986153</v>
+        <v>42.49581509440111</v>
       </c>
       <c r="J12">
-        <v>6.431951569778446</v>
+        <v>10.8317792004487</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.732652950695242</v>
+        <v>10.34579855375347</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.973164977695482</v>
+        <v>7.185184724326807</v>
       </c>
       <c r="D13">
-        <v>4.525861062596773</v>
+        <v>5.910882054456976</v>
       </c>
       <c r="E13">
-        <v>7.160777692461154</v>
+        <v>12.34859967880871</v>
       </c>
       <c r="F13">
-        <v>65.47324738776921</v>
+        <v>56.20457092824671</v>
       </c>
       <c r="G13">
-        <v>101.1356170780166</v>
+        <v>76.45681216362989</v>
       </c>
       <c r="H13">
-        <v>25.2608739454773</v>
+        <v>24.74479148950045</v>
       </c>
       <c r="I13">
-        <v>47.52132790535167</v>
+        <v>42.47409719890825</v>
       </c>
       <c r="J13">
-        <v>6.427769503460047</v>
+        <v>10.83278299952341</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.731926901198058</v>
+        <v>10.34696994147886</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617568</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.97364895876052</v>
+        <v>7.187310782939388</v>
       </c>
       <c r="D14">
-        <v>4.502513593573076</v>
+        <v>5.907109388213589</v>
       </c>
       <c r="E14">
-        <v>7.150390969671299</v>
+        <v>12.35261793331732</v>
       </c>
       <c r="F14">
-        <v>64.81108859456101</v>
+        <v>56.0961346323378</v>
       </c>
       <c r="G14">
-        <v>100.0943722935125</v>
+        <v>76.2358747157632</v>
       </c>
       <c r="H14">
-        <v>25.00372265578511</v>
+        <v>24.71642652038864</v>
       </c>
       <c r="I14">
-        <v>47.02988296089109</v>
+        <v>42.40350303253088</v>
       </c>
       <c r="J14">
-        <v>6.414330329600361</v>
+        <v>10.83609663402414</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.729687323063642</v>
+        <v>10.35082226427555</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.973992772214895</v>
+        <v>7.188624036432071</v>
       </c>
       <c r="D15">
-        <v>4.488290402540208</v>
+        <v>5.904794206737772</v>
       </c>
       <c r="E15">
-        <v>7.144169854406544</v>
+        <v>12.35511151146535</v>
       </c>
       <c r="F15">
-        <v>64.40561907014441</v>
+        <v>56.02993468999172</v>
       </c>
       <c r="G15">
-        <v>99.45665433760637</v>
+        <v>76.10070318765389</v>
       </c>
       <c r="H15">
-        <v>24.84625494827912</v>
+        <v>24.69916471176785</v>
       </c>
       <c r="I15">
-        <v>46.72885690534949</v>
+        <v>42.36044200767237</v>
       </c>
       <c r="J15">
-        <v>6.406249024768934</v>
+        <v>10.83815708467463</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.728412541403739</v>
+        <v>10.35320664912925</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549471</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.976650714719295</v>
+        <v>7.19631826594784</v>
       </c>
       <c r="D16">
-        <v>4.40785474864327</v>
+        <v>5.891460513898252</v>
       </c>
       <c r="E16">
-        <v>7.110591676219716</v>
+        <v>12.36989598816727</v>
       </c>
       <c r="F16">
-        <v>62.12076840972467</v>
+        <v>55.65403096743166</v>
       </c>
       <c r="G16">
-        <v>95.80052674167207</v>
+        <v>75.32873880181515</v>
       </c>
       <c r="H16">
-        <v>23.94388056361739</v>
+        <v>24.6019844126132</v>
       </c>
       <c r="I16">
-        <v>45.03201460537979</v>
+        <v>42.11648363326397</v>
       </c>
       <c r="J16">
-        <v>6.362141718583231</v>
+        <v>10.85043589954232</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.722535596639011</v>
+        <v>10.36724973123358</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.9788571814644</v>
+        <v>7.201188997336454</v>
       </c>
       <c r="D17">
-        <v>4.359346824892431</v>
+        <v>5.88322133187757</v>
       </c>
       <c r="E17">
-        <v>7.091751557005309</v>
+        <v>12.37940729992349</v>
       </c>
       <c r="F17">
-        <v>60.7711858699453</v>
+        <v>55.42660414023256</v>
       </c>
       <c r="G17">
-        <v>93.55859340514098</v>
+        <v>74.857758199261</v>
       </c>
       <c r="H17">
-        <v>23.41380594831909</v>
+        <v>24.54393606585015</v>
       </c>
       <c r="I17">
-        <v>44.07831406774778</v>
+        <v>41.96938018930108</v>
       </c>
       <c r="J17">
-        <v>6.336944168997376</v>
+        <v>10.85838883625898</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.720145412000054</v>
+        <v>10.37620318873222</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.980324371893637</v>
+        <v>7.204045931744877</v>
       </c>
       <c r="D18">
-        <v>4.331710822529376</v>
+        <v>5.878460461598528</v>
       </c>
       <c r="E18">
-        <v>7.081528379392872</v>
+        <v>12.38504021210554</v>
       </c>
       <c r="F18">
-        <v>59.99517610305099</v>
+        <v>55.2969971001227</v>
       </c>
       <c r="G18">
-        <v>92.28157287260291</v>
+        <v>74.58790791313899</v>
       </c>
       <c r="H18">
-        <v>23.14370572491725</v>
+        <v>24.51113074409971</v>
       </c>
       <c r="I18">
-        <v>43.53036768058149</v>
+        <v>41.88573033908828</v>
       </c>
       <c r="J18">
-        <v>6.323096427856154</v>
+        <v>10.86311753393232</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.719195348749324</v>
+        <v>10.38147744019941</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568362</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.980853990341004</v>
+        <v>7.205022766883077</v>
       </c>
       <c r="D19">
-        <v>4.322395453901467</v>
+        <v>5.876844741606675</v>
       </c>
       <c r="E19">
-        <v>7.078169356014513</v>
+        <v>12.3869752874135</v>
       </c>
       <c r="F19">
-        <v>59.73242719974752</v>
+        <v>55.25332424940351</v>
       </c>
       <c r="G19">
-        <v>91.84878956892729</v>
+        <v>74.49672950215897</v>
       </c>
       <c r="H19">
-        <v>23.05238445599013</v>
+        <v>24.50012403820437</v>
       </c>
       <c r="I19">
-        <v>43.34491295016555</v>
+        <v>41.85757474748316</v>
       </c>
       <c r="J19">
-        <v>6.318515232531547</v>
+        <v>10.86474509740382</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.718944687621104</v>
+        <v>10.38328459373762</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880252</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.978601513159842</v>
+        <v>7.200664765968112</v>
       </c>
       <c r="D20">
-        <v>4.36448229950531</v>
+        <v>5.884100672650497</v>
       </c>
       <c r="E20">
-        <v>7.093692948186934</v>
+        <v>12.37837801159877</v>
       </c>
       <c r="F20">
-        <v>60.91481577051005</v>
+        <v>55.45069040463455</v>
       </c>
       <c r="G20">
-        <v>93.79476661906492</v>
+        <v>74.90778877801738</v>
       </c>
       <c r="H20">
-        <v>23.46386083124084</v>
+        <v>24.55005525359931</v>
       </c>
       <c r="I20">
-        <v>44.17976746074402</v>
+        <v>41.98494068367541</v>
       </c>
       <c r="J20">
-        <v>6.339558888313452</v>
+        <v>10.85752625329142</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.720355428443376</v>
+        <v>10.37523719837484</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799483449</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.973496834655206</v>
+        <v>7.186684019975634</v>
       </c>
       <c r="D21">
-        <v>4.509354789429876</v>
+        <v>5.908218410409182</v>
       </c>
       <c r="E21">
-        <v>7.153412182665578</v>
+        <v>12.35143094719327</v>
       </c>
       <c r="F21">
-        <v>65.00555089225492</v>
+        <v>56.12793926527856</v>
       </c>
       <c r="G21">
-        <v>100.4001885437702</v>
+        <v>76.30073676084855</v>
       </c>
       <c r="H21">
-        <v>25.07924313833831</v>
+        <v>24.7247345797031</v>
       </c>
       <c r="I21">
-        <v>47.17422932472726</v>
+        <v>42.42420086915446</v>
       </c>
       <c r="J21">
-        <v>6.418246098067599</v>
+        <v>10.83511692977273</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.730324774231361</v>
+        <v>10.34968559119871</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554064</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.972242500037908</v>
+        <v>7.178038512520449</v>
       </c>
       <c r="D22">
-        <v>4.607399462594135</v>
+        <v>5.923787415286124</v>
       </c>
       <c r="E22">
-        <v>7.198663071601009</v>
+        <v>12.33526432029697</v>
       </c>
       <c r="F22">
-        <v>67.75313180334592</v>
+        <v>56.58052096965619</v>
       </c>
       <c r="G22">
-        <v>104.7190541568759</v>
+        <v>77.21847383996338</v>
       </c>
       <c r="H22">
-        <v>26.14624714776077</v>
+        <v>24.84395200054346</v>
       </c>
       <c r="I22">
-        <v>49.21207732095201</v>
+        <v>42.71939213923282</v>
       </c>
       <c r="J22">
-        <v>6.476304987060029</v>
+        <v>10.8218474141848</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.741122267646057</v>
+        <v>10.33409299526921</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.972703387371337</v>
+        <v>7.182607875268259</v>
       </c>
       <c r="D23">
-        <v>4.554706469285317</v>
+        <v>5.915495547875958</v>
       </c>
       <c r="E23">
-        <v>7.173900952524509</v>
+        <v>12.34376055245106</v>
       </c>
       <c r="F23">
-        <v>66.28553338547418</v>
+        <v>56.33809516110047</v>
       </c>
       <c r="G23">
-        <v>102.4126265634031</v>
+        <v>76.72807974620693</v>
       </c>
       <c r="H23">
-        <v>25.57632196383985</v>
+        <v>24.77986769463015</v>
       </c>
       <c r="I23">
-        <v>48.12394817062499</v>
+        <v>42.56112286494051</v>
       </c>
       <c r="J23">
-        <v>6.444662201738879</v>
+        <v>10.82880360110862</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.734940250972734</v>
+        <v>10.34231384795075</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.978716485188252</v>
+        <v>7.200901594385742</v>
       </c>
       <c r="D24">
-        <v>4.36215977707612</v>
+        <v>5.883703197632071</v>
       </c>
       <c r="E24">
-        <v>7.092813358462465</v>
+        <v>12.37884283974535</v>
       </c>
       <c r="F24">
-        <v>60.84988118423386</v>
+        <v>55.43979743396029</v>
       </c>
       <c r="G24">
-        <v>93.68800064984906</v>
+        <v>74.88516705758251</v>
       </c>
       <c r="H24">
-        <v>23.44122879915166</v>
+        <v>24.54728699991263</v>
       </c>
       <c r="I24">
-        <v>44.13389938566737</v>
+        <v>41.97790290789958</v>
       </c>
       <c r="J24">
-        <v>6.338374793484192</v>
+        <v>10.85791573976648</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.720259164210888</v>
+        <v>10.3756735276783</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911919</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.992683764326536</v>
+        <v>7.222754232826133</v>
       </c>
       <c r="D25">
-        <v>4.164282244540145</v>
+        <v>5.848571135465709</v>
       </c>
       <c r="E25">
-        <v>7.028514396542036</v>
+        <v>12.42288824186712</v>
       </c>
       <c r="F25">
-        <v>55.18037751471086</v>
+        <v>54.5172289374464</v>
       </c>
       <c r="G25">
-        <v>84.31492145129252</v>
+        <v>72.93841039704067</v>
       </c>
       <c r="H25">
-        <v>21.48189226217031</v>
+        <v>24.31874453786596</v>
       </c>
       <c r="I25">
-        <v>40.13855205133924</v>
+        <v>41.38574222493524</v>
       </c>
       <c r="J25">
-        <v>6.248082181768746</v>
+        <v>10.8952191525488</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.720481797459292</v>
+        <v>10.41641664866672</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088412</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.240679918064298</v>
+        <v>4.008222300014357</v>
       </c>
       <c r="D2">
-        <v>5.82196662681687</v>
+        <v>4.023242394518229</v>
       </c>
       <c r="E2">
-        <v>12.46065815797078</v>
+        <v>6.997955438955182</v>
       </c>
       <c r="F2">
-        <v>53.88144777410852</v>
+        <v>50.96926709039361</v>
       </c>
       <c r="G2">
-        <v>71.55053117575966</v>
+        <v>77.27070697954869</v>
       </c>
       <c r="H2">
-        <v>24.17023702721616</v>
+        <v>20.05198696174888</v>
       </c>
       <c r="I2">
-        <v>40.98355024799</v>
+        <v>37.18552630918875</v>
       </c>
       <c r="J2">
-        <v>10.92775514833054</v>
+        <v>6.198928300777741</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.45052131975543</v>
+        <v>5.732412796492657</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883691</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.253979846253294</v>
+        <v>4.021610189517813</v>
       </c>
       <c r="D3">
-        <v>5.803469237481298</v>
+        <v>3.929214474692583</v>
       </c>
       <c r="E3">
-        <v>12.4895881847224</v>
+        <v>6.986462192038544</v>
       </c>
       <c r="F3">
-        <v>53.47938016116156</v>
+        <v>48.08272518528719</v>
       </c>
       <c r="G3">
-        <v>70.64340532633348</v>
+        <v>72.3873908007905</v>
       </c>
       <c r="H3">
-        <v>24.08215247237939</v>
+        <v>19.08768903050792</v>
       </c>
       <c r="I3">
-        <v>40.73299499319394</v>
+        <v>35.1706215356153</v>
       </c>
       <c r="J3">
-        <v>10.95296466775718</v>
+        <v>6.174994697444603</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.47620201549809</v>
+        <v>5.74703385959733</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502705</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.262716213273668</v>
+        <v>4.031132723759502</v>
       </c>
       <c r="D4">
-        <v>5.791878923516001</v>
+        <v>3.871907960547963</v>
       </c>
       <c r="E4">
-        <v>12.50899615333653</v>
+        <v>6.983598960864263</v>
       </c>
       <c r="F4">
-        <v>53.24722460944285</v>
+        <v>46.29382814374286</v>
       </c>
       <c r="G4">
-        <v>70.10457091085885</v>
+        <v>69.33276362984336</v>
       </c>
       <c r="H4">
-        <v>24.03432458196443</v>
+        <v>18.49783005581278</v>
       </c>
       <c r="I4">
-        <v>40.59028273905867</v>
+        <v>33.92652645948268</v>
       </c>
       <c r="J4">
-        <v>10.97000095944372</v>
+        <v>6.164524498336839</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.49323879232871</v>
+        <v>5.759011925596223</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896364</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.266420037099855</v>
+        <v>4.035327292374573</v>
       </c>
       <c r="D5">
-        <v>5.787096938839175</v>
+        <v>3.848620435414961</v>
       </c>
       <c r="E5">
-        <v>12.51731877923831</v>
+        <v>6.983439412808784</v>
       </c>
       <c r="F5">
-        <v>53.15639101174041</v>
+        <v>45.56089093736976</v>
       </c>
       <c r="G5">
-        <v>69.88979535565943</v>
+        <v>68.07395465342815</v>
       </c>
       <c r="H5">
-        <v>24.01641548997424</v>
+        <v>18.25808585732029</v>
       </c>
       <c r="I5">
-        <v>40.5349625505344</v>
+        <v>33.41796540613176</v>
       </c>
       <c r="J5">
-        <v>10.97733491058785</v>
+        <v>6.161266563479384</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.50050077123841</v>
+        <v>5.764618093531392</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188765</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.267043741598322</v>
+        <v>4.036042410356465</v>
       </c>
       <c r="D6">
-        <v>5.78629933179792</v>
+        <v>3.84475640018595</v>
       </c>
       <c r="E6">
-        <v>12.51872573618084</v>
+        <v>6.983472446486842</v>
       </c>
       <c r="F6">
-        <v>53.14153789802702</v>
+        <v>45.4389597398191</v>
       </c>
       <c r="G6">
-        <v>69.85442899561212</v>
+        <v>67.864094852799</v>
       </c>
       <c r="H6">
-        <v>24.01353738982078</v>
+        <v>18.21831778196117</v>
       </c>
       <c r="I6">
-        <v>40.52594897505973</v>
+        <v>33.33343151343929</v>
       </c>
       <c r="J6">
-        <v>10.97857635071194</v>
+        <v>6.160785026971861</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.50172591506596</v>
+        <v>5.765591972906353</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.262765582145795</v>
+        <v>4.031188037864038</v>
       </c>
       <c r="D7">
-        <v>5.791814670616975</v>
+        <v>3.871593683080485</v>
       </c>
       <c r="E7">
-        <v>12.50910671986518</v>
+        <v>6.983592790471506</v>
       </c>
       <c r="F7">
-        <v>53.24598423564453</v>
+        <v>46.28395902039272</v>
       </c>
       <c r="G7">
-        <v>70.10165461186129</v>
+        <v>69.31584321374299</v>
       </c>
       <c r="H7">
-        <v>24.03407664256463</v>
+        <v>18.49459409708228</v>
       </c>
       <c r="I7">
-        <v>40.58952514192086</v>
+        <v>33.91967390133171</v>
       </c>
       <c r="J7">
-        <v>10.97009828257184</v>
+        <v>6.164476543945628</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.49333543642013</v>
+        <v>5.759084633730045</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304766463</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.245147584407842</v>
+        <v>4.012559411800798</v>
       </c>
       <c r="D8">
-        <v>5.815636878004722</v>
+        <v>3.99070543789959</v>
       </c>
       <c r="E8">
-        <v>12.47029192098302</v>
+        <v>6.993092390373004</v>
       </c>
       <c r="F8">
-        <v>53.73980567169919</v>
+        <v>49.97747344385763</v>
       </c>
       <c r="G8">
-        <v>71.2341364771066</v>
+        <v>75.59855713975885</v>
       </c>
       <c r="H8">
-        <v>24.13857231598888</v>
+        <v>19.71905386749544</v>
       </c>
       <c r="I8">
-        <v>40.89487285550817</v>
+        <v>36.49227087827997</v>
       </c>
       <c r="J8">
-        <v>10.93612404254448</v>
+        <v>6.189765248471035</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.4591128923743</v>
+        <v>5.736812619599585</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656866</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.215108822380648</v>
+        <v>3.987096552111567</v>
       </c>
       <c r="D9">
-        <v>5.860518890367791</v>
+        <v>4.230001989537977</v>
       </c>
       <c r="E9">
-        <v>12.40722232928409</v>
+        <v>7.047380250855989</v>
       </c>
       <c r="F9">
-        <v>54.82147432476117</v>
+        <v>57.09381831936123</v>
       </c>
       <c r="G9">
-        <v>73.58779030816854</v>
+        <v>87.49058987618591</v>
       </c>
       <c r="H9">
-        <v>24.39269338200491</v>
+        <v>22.13923477360925</v>
       </c>
       <c r="I9">
-        <v>41.58009133903944</v>
+        <v>41.48473819010818</v>
       </c>
       <c r="J9">
-        <v>10.88186553487712</v>
+        <v>6.275592338524924</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.40205533037962</v>
+        <v>5.718458387153304</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380646</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.195769984866931</v>
+        <v>3.976426723862319</v>
       </c>
       <c r="D10">
-        <v>5.8923976990045</v>
+        <v>4.413428665523337</v>
       </c>
       <c r="E10">
-        <v>12.36883266751566</v>
+        <v>7.112826884979503</v>
       </c>
       <c r="F10">
-        <v>55.68014242145632</v>
+        <v>62.27483430558007</v>
       </c>
       <c r="G10">
-        <v>75.38261594773743</v>
+        <v>96.0566624820072</v>
       </c>
       <c r="H10">
-        <v>24.60868663556973</v>
+        <v>24.00707406707817</v>
       </c>
       <c r="I10">
-        <v>42.13339779608805</v>
+        <v>45.14094566052788</v>
       </c>
       <c r="J10">
-        <v>10.84954933826331</v>
+        <v>6.365107071604943</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.36624493908714</v>
+        <v>5.722867415325066</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203862</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.187561265708002</v>
+        <v>3.973711930724463</v>
       </c>
       <c r="D11">
-        <v>5.906666910723553</v>
+        <v>4.499789174716248</v>
       </c>
       <c r="E11">
-        <v>12.3530928670554</v>
+        <v>7.149193012995876</v>
       </c>
       <c r="F11">
-        <v>56.0834620339088</v>
+        <v>64.73354469756228</v>
       </c>
       <c r="G11">
-        <v>76.21001617407893</v>
+        <v>99.97241910847336</v>
       </c>
       <c r="H11">
-        <v>24.71311884555069</v>
+        <v>24.9736079445855</v>
       </c>
       <c r="I11">
-        <v>42.39525773261941</v>
+        <v>46.97231881538125</v>
       </c>
       <c r="J11">
-        <v>10.83648883126462</v>
+        <v>6.41277609603355</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.3512767649242</v>
+        <v>5.729437841755485</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374474</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.184537182689872</v>
+        <v>3.973035869606757</v>
       </c>
       <c r="D12">
-        <v>5.912037162253204</v>
+        <v>4.533052493680567</v>
       </c>
       <c r="E12">
-        <v>12.34738042714542</v>
+        <v>7.164019815385217</v>
       </c>
       <c r="F12">
-        <v>56.23790833005934</v>
+        <v>65.67635440602074</v>
       </c>
       <c r="G12">
-        <v>76.5246205168887</v>
+        <v>101.4549567168308</v>
       </c>
       <c r="H12">
-        <v>24.75353391884827</v>
+        <v>25.33975026895293</v>
       </c>
       <c r="I12">
-        <v>42.49581509440111</v>
+        <v>47.67203444986151</v>
       </c>
       <c r="J12">
-        <v>10.8317792004487</v>
+        <v>6.431951569778397</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.34579855375347</v>
+        <v>5.732652950695234</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.185184724326807</v>
+        <v>3.973164977695339</v>
       </c>
       <c r="D13">
-        <v>5.910882054456976</v>
+        <v>4.525861062596666</v>
       </c>
       <c r="E13">
-        <v>12.34859967880871</v>
+        <v>7.160777692461115</v>
       </c>
       <c r="F13">
-        <v>56.20457092824671</v>
+        <v>65.47324738776899</v>
       </c>
       <c r="G13">
-        <v>76.45681216362989</v>
+        <v>101.1356170780162</v>
       </c>
       <c r="H13">
-        <v>24.74479148950045</v>
+        <v>25.26087394547725</v>
       </c>
       <c r="I13">
-        <v>42.47409719890825</v>
+        <v>47.52132790535151</v>
       </c>
       <c r="J13">
-        <v>10.83278299952341</v>
+        <v>6.427769503460047</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.34696994147886</v>
+        <v>5.731926901198061</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617571</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.187310782939388</v>
+        <v>3.973648958760513</v>
       </c>
       <c r="D14">
-        <v>5.907109388213589</v>
+        <v>4.502513593572997</v>
       </c>
       <c r="E14">
-        <v>12.35261793331732</v>
+        <v>7.150390969671203</v>
       </c>
       <c r="F14">
-        <v>56.0961346323378</v>
+        <v>64.81108859456124</v>
       </c>
       <c r="G14">
-        <v>76.2358747157632</v>
+        <v>100.0943722935128</v>
       </c>
       <c r="H14">
-        <v>24.71642652038864</v>
+        <v>25.00372265578521</v>
       </c>
       <c r="I14">
-        <v>42.40350303253088</v>
+        <v>47.02988296089124</v>
       </c>
       <c r="J14">
-        <v>10.83609663402414</v>
+        <v>6.414330329600316</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.35082226427555</v>
+        <v>5.729687323063559</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.188624036432071</v>
+        <v>3.973992772215015</v>
       </c>
       <c r="D15">
-        <v>5.904794206737772</v>
+        <v>4.488290402540208</v>
       </c>
       <c r="E15">
-        <v>12.35511151146535</v>
+        <v>7.144169854406497</v>
       </c>
       <c r="F15">
-        <v>56.02993468999172</v>
+        <v>64.4056190701445</v>
       </c>
       <c r="G15">
-        <v>76.10070318765389</v>
+        <v>99.45665433760639</v>
       </c>
       <c r="H15">
-        <v>24.69916471176785</v>
+        <v>24.84625494827915</v>
       </c>
       <c r="I15">
-        <v>42.36044200767237</v>
+        <v>46.72885690534952</v>
       </c>
       <c r="J15">
-        <v>10.83815708467463</v>
+        <v>6.406249024768881</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.35320664912925</v>
+        <v>5.728412541403666</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549474</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.19631826594784</v>
+        <v>3.976650714719288</v>
       </c>
       <c r="D16">
-        <v>5.891460513898252</v>
+        <v>4.407854748643409</v>
       </c>
       <c r="E16">
-        <v>12.36989598816727</v>
+        <v>7.110591676219702</v>
       </c>
       <c r="F16">
-        <v>55.65403096743166</v>
+        <v>62.12076840972463</v>
       </c>
       <c r="G16">
-        <v>75.32873880181515</v>
+        <v>95.8005267416721</v>
       </c>
       <c r="H16">
-        <v>24.6019844126132</v>
+        <v>23.94388056361739</v>
       </c>
       <c r="I16">
-        <v>42.11648363326397</v>
+        <v>45.03201460537978</v>
       </c>
       <c r="J16">
-        <v>10.85043589954232</v>
+        <v>6.362141718583163</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.36724973123358</v>
+        <v>5.722535596638936</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.201188997336454</v>
+        <v>3.978857181464407</v>
       </c>
       <c r="D17">
-        <v>5.88322133187757</v>
+        <v>4.359346824892367</v>
       </c>
       <c r="E17">
-        <v>12.37940729992349</v>
+        <v>7.09175155700528</v>
       </c>
       <c r="F17">
-        <v>55.42660414023256</v>
+        <v>60.77118586994543</v>
       </c>
       <c r="G17">
-        <v>74.857758199261</v>
+        <v>93.55859340514122</v>
       </c>
       <c r="H17">
-        <v>24.54393606585015</v>
+        <v>23.41380594831913</v>
       </c>
       <c r="I17">
-        <v>41.96938018930108</v>
+        <v>44.07831406774786</v>
       </c>
       <c r="J17">
-        <v>10.85838883625898</v>
+        <v>6.336944168997404</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.37620318873222</v>
+        <v>5.720145412000067</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119275</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.204045931744877</v>
+        <v>3.9803243718934</v>
       </c>
       <c r="D18">
-        <v>5.878460461598528</v>
+        <v>4.331710822529242</v>
       </c>
       <c r="E18">
-        <v>12.38504021210554</v>
+        <v>7.081528379392801</v>
       </c>
       <c r="F18">
-        <v>55.2969971001227</v>
+        <v>59.99517610305097</v>
       </c>
       <c r="G18">
-        <v>74.58790791313899</v>
+        <v>92.28157287260275</v>
       </c>
       <c r="H18">
-        <v>24.51113074409971</v>
+        <v>23.14370572491724</v>
       </c>
       <c r="I18">
-        <v>41.88573033908828</v>
+        <v>43.53036768058146</v>
       </c>
       <c r="J18">
-        <v>10.86311753393232</v>
+        <v>6.323096427856162</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.38147744019941</v>
+        <v>5.719195348749372</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568362</v>
+        <v>29.56404287680427</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.205022766883077</v>
+        <v>3.980853990341004</v>
       </c>
       <c r="D19">
-        <v>5.876844741606675</v>
+        <v>4.322395453901323</v>
       </c>
       <c r="E19">
-        <v>12.3869752874135</v>
+        <v>7.078169356014517</v>
       </c>
       <c r="F19">
-        <v>55.25332424940351</v>
+        <v>59.7324271997476</v>
       </c>
       <c r="G19">
-        <v>74.49672950215897</v>
+        <v>91.84878956892747</v>
       </c>
       <c r="H19">
-        <v>24.50012403820437</v>
+        <v>23.05238445599014</v>
       </c>
       <c r="I19">
-        <v>41.85757474748316</v>
+        <v>43.3449129501656</v>
       </c>
       <c r="J19">
-        <v>10.86474509740382</v>
+        <v>6.318515232531594</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.38328459373762</v>
+        <v>5.718944687621144</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>29.45587200880252</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.200664765968112</v>
+        <v>3.978601513159829</v>
       </c>
       <c r="D20">
-        <v>5.884100672650497</v>
+        <v>4.364482299505197</v>
       </c>
       <c r="E20">
-        <v>12.37837801159877</v>
+        <v>7.093692948186928</v>
       </c>
       <c r="F20">
-        <v>55.45069040463455</v>
+        <v>60.91481577051024</v>
       </c>
       <c r="G20">
-        <v>74.90778877801738</v>
+        <v>93.79476661906536</v>
       </c>
       <c r="H20">
-        <v>24.55005525359931</v>
+        <v>23.46386083124087</v>
       </c>
       <c r="I20">
-        <v>41.98494068367541</v>
+        <v>44.17976746074415</v>
       </c>
       <c r="J20">
-        <v>10.85752625329142</v>
+        <v>6.339558888313418</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.37523719837484</v>
+        <v>5.720355428443325</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799483449</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.186684019975634</v>
+        <v>3.973496834655199</v>
       </c>
       <c r="D21">
-        <v>5.908218410409182</v>
+        <v>4.509354789429818</v>
       </c>
       <c r="E21">
-        <v>12.35143094719327</v>
+        <v>7.153412182665586</v>
       </c>
       <c r="F21">
-        <v>56.12793926527856</v>
+        <v>65.00555089225486</v>
       </c>
       <c r="G21">
-        <v>76.30073676084855</v>
+        <v>100.4001885437701</v>
       </c>
       <c r="H21">
-        <v>24.7247345797031</v>
+        <v>25.07924313833826</v>
       </c>
       <c r="I21">
-        <v>42.42420086915446</v>
+        <v>47.17422932472722</v>
       </c>
       <c r="J21">
-        <v>10.83511692977273</v>
+        <v>6.418246098067609</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.34968559119871</v>
+        <v>5.730324774231453</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554064</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.178038512520449</v>
+        <v>3.972242500037783</v>
       </c>
       <c r="D22">
-        <v>5.923787415286124</v>
+        <v>4.607399462594141</v>
       </c>
       <c r="E22">
-        <v>12.33526432029697</v>
+        <v>7.198663071600985</v>
       </c>
       <c r="F22">
-        <v>56.58052096965619</v>
+        <v>67.75313180334602</v>
       </c>
       <c r="G22">
-        <v>77.21847383996338</v>
+        <v>104.7190541568761</v>
       </c>
       <c r="H22">
-        <v>24.84395200054346</v>
+        <v>26.14624714776081</v>
       </c>
       <c r="I22">
-        <v>42.71939213923282</v>
+        <v>49.21207732095208</v>
       </c>
       <c r="J22">
-        <v>10.8218474141848</v>
+        <v>6.476304987060008</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.33409299526921</v>
+        <v>5.741122267646058</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.182607875268259</v>
+        <v>3.97270338737144</v>
       </c>
       <c r="D23">
-        <v>5.915495547875958</v>
+        <v>4.554706469285193</v>
       </c>
       <c r="E23">
-        <v>12.34376055245106</v>
+        <v>7.173900952524506</v>
       </c>
       <c r="F23">
-        <v>56.33809516110047</v>
+        <v>66.28553338547405</v>
       </c>
       <c r="G23">
-        <v>76.72807974620693</v>
+        <v>102.4126265634028</v>
       </c>
       <c r="H23">
-        <v>24.77986769463015</v>
+        <v>25.5763219638398</v>
       </c>
       <c r="I23">
-        <v>42.56112286494051</v>
+        <v>48.12394817062486</v>
       </c>
       <c r="J23">
-        <v>10.82880360110862</v>
+        <v>6.444662201738896</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.34231384795075</v>
+        <v>5.734940250972721</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.200901594385742</v>
+        <v>3.978716485188238</v>
       </c>
       <c r="D24">
-        <v>5.883703197632071</v>
+        <v>4.362159777076253</v>
       </c>
       <c r="E24">
-        <v>12.37884283974535</v>
+        <v>7.092813358462506</v>
       </c>
       <c r="F24">
-        <v>55.43979743396029</v>
+        <v>60.84988118423406</v>
       </c>
       <c r="G24">
-        <v>74.88516705758251</v>
+        <v>93.68800064984946</v>
       </c>
       <c r="H24">
-        <v>24.54728699991263</v>
+        <v>23.44122879915172</v>
       </c>
       <c r="I24">
-        <v>41.97790290789958</v>
+        <v>44.13389938566748</v>
       </c>
       <c r="J24">
-        <v>10.85791573976648</v>
+        <v>6.338374793484171</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.3756735276783</v>
+        <v>5.72025916421086</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>29.91317649911917</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.222754232826133</v>
+        <v>3.99268376432666</v>
       </c>
       <c r="D25">
-        <v>5.848571135465709</v>
+        <v>4.164282244540344</v>
       </c>
       <c r="E25">
-        <v>12.42288824186712</v>
+        <v>7.028514396542092</v>
       </c>
       <c r="F25">
-        <v>54.5172289374464</v>
+        <v>55.18037751471089</v>
       </c>
       <c r="G25">
-        <v>72.93841039704067</v>
+        <v>84.31492145129263</v>
       </c>
       <c r="H25">
-        <v>24.31874453786596</v>
+        <v>21.48189226217031</v>
       </c>
       <c r="I25">
-        <v>41.38574222493524</v>
+        <v>40.13855205133925</v>
       </c>
       <c r="J25">
-        <v>10.8952191525488</v>
+        <v>6.248082181768794</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.41641664866672</v>
+        <v>5.72048179745941</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088411</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.008222300014357</v>
+        <v>4.768425086631739</v>
       </c>
       <c r="D2">
-        <v>4.023242394518229</v>
+        <v>5.596727484181026</v>
       </c>
       <c r="E2">
-        <v>6.997955438955182</v>
+        <v>8.591729076228056</v>
       </c>
       <c r="F2">
-        <v>50.96926709039361</v>
+        <v>24.84265990317508</v>
       </c>
       <c r="G2">
-        <v>77.27070697954869</v>
+        <v>32.49571548446445</v>
       </c>
       <c r="H2">
-        <v>20.05198696174888</v>
+        <v>2.359293962345301</v>
       </c>
       <c r="I2">
-        <v>37.18552630918875</v>
+        <v>4.34209061193095</v>
       </c>
       <c r="J2">
-        <v>6.198928300777741</v>
+        <v>10.18429402641145</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.07428732131131</v>
       </c>
       <c r="L2">
-        <v>5.732412796492657</v>
+        <v>6.268883083630704</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682377</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>27.7237053624561</v>
+      </c>
+      <c r="P2">
+        <v>19.95662990903238</v>
+      </c>
+      <c r="Q2">
+        <v>18.34783065972573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.021610189517813</v>
+        <v>4.564914464829829</v>
       </c>
       <c r="D3">
-        <v>3.929214474692583</v>
+        <v>5.604126189836936</v>
       </c>
       <c r="E3">
-        <v>6.986462192038544</v>
+        <v>8.584945831875928</v>
       </c>
       <c r="F3">
-        <v>48.08272518528719</v>
+        <v>23.87215573458503</v>
       </c>
       <c r="G3">
-        <v>72.3873908007905</v>
+        <v>30.75490756459506</v>
       </c>
       <c r="H3">
-        <v>19.08768903050792</v>
+        <v>2.124620233649877</v>
       </c>
       <c r="I3">
-        <v>35.1706215356153</v>
+        <v>4.147195686783094</v>
       </c>
       <c r="J3">
-        <v>6.174994697444603</v>
+        <v>9.927383718113949</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.38055030053807</v>
       </c>
       <c r="L3">
-        <v>5.74703385959733</v>
+        <v>6.255566886856771</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997341</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>26.02453183336386</v>
+      </c>
+      <c r="P3">
+        <v>19.09578051721122</v>
+      </c>
+      <c r="Q3">
+        <v>17.63905607838677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.031132723759502</v>
+        <v>4.430967281286638</v>
       </c>
       <c r="D4">
-        <v>3.871907960547963</v>
+        <v>5.610319390983347</v>
       </c>
       <c r="E4">
-        <v>6.983598960864263</v>
+        <v>8.580643858497876</v>
       </c>
       <c r="F4">
-        <v>46.29382814374286</v>
+        <v>23.26296382586897</v>
       </c>
       <c r="G4">
-        <v>69.33276362984336</v>
+        <v>29.64150703188587</v>
       </c>
       <c r="H4">
-        <v>18.49783005581278</v>
+        <v>1.975525633330149</v>
       </c>
       <c r="I4">
-        <v>33.92652645948268</v>
+        <v>4.023112955324911</v>
       </c>
       <c r="J4">
-        <v>6.164524498336839</v>
+        <v>9.768606014474871</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.94178137527781</v>
       </c>
       <c r="L4">
-        <v>5.759011925596223</v>
+        <v>6.246678065204075</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662918</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>24.91779766112424</v>
+      </c>
+      <c r="P4">
+        <v>18.54887907469061</v>
+      </c>
+      <c r="Q4">
+        <v>17.19343959542111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.035327292374573</v>
+        <v>4.364385527241939</v>
       </c>
       <c r="D5">
-        <v>3.848620435414961</v>
+        <v>5.613942165124413</v>
       </c>
       <c r="E5">
-        <v>6.983439412808784</v>
+        <v>8.578881610544837</v>
       </c>
       <c r="F5">
-        <v>45.56089093736976</v>
+        <v>23.00401291072946</v>
       </c>
       <c r="G5">
-        <v>68.07395465342815</v>
+        <v>29.1616356035632</v>
       </c>
       <c r="H5">
-        <v>18.25808585732029</v>
+        <v>1.913141508125528</v>
       </c>
       <c r="I5">
-        <v>33.41796540613176</v>
+        <v>3.971158400100269</v>
       </c>
       <c r="J5">
-        <v>6.161266563479384</v>
+        <v>9.700869225970225</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.74993456982648</v>
       </c>
       <c r="L5">
-        <v>5.764618093531392</v>
+        <v>6.242744071186356</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195407</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>24.44738966837328</v>
+      </c>
+      <c r="P5">
+        <v>18.32239635059929</v>
+      </c>
+      <c r="Q5">
+        <v>17.00256288303271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.036042410356465</v>
+        <v>4.341305284385276</v>
       </c>
       <c r="D6">
-        <v>3.84475640018595</v>
+        <v>5.615425742016692</v>
       </c>
       <c r="E6">
-        <v>6.983472446486842</v>
+        <v>8.578637380912134</v>
       </c>
       <c r="F6">
-        <v>45.4389597398191</v>
+        <v>22.951439128729</v>
       </c>
       <c r="G6">
-        <v>67.864094852799</v>
+        <v>29.06247672000208</v>
       </c>
       <c r="H6">
-        <v>18.21831778196117</v>
+        <v>1.902277332907018</v>
       </c>
       <c r="I6">
-        <v>33.33343151343929</v>
+        <v>3.962283057783844</v>
       </c>
       <c r="J6">
-        <v>6.160785026971861</v>
+        <v>9.686127342179219</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.7056034508536</v>
       </c>
       <c r="L6">
-        <v>5.765591972906353</v>
+        <v>6.241924052447584</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>24.36400146828744</v>
+      </c>
+      <c r="P6">
+        <v>18.28540457448117</v>
+      </c>
+      <c r="Q6">
+        <v>16.96228340264121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.031188037864038</v>
+        <v>4.397971882667474</v>
       </c>
       <c r="D7">
-        <v>3.871593683080485</v>
+        <v>5.612706540694264</v>
       </c>
       <c r="E7">
-        <v>6.983592790471506</v>
+        <v>8.580765080286341</v>
       </c>
       <c r="F7">
-        <v>46.28395902039272</v>
+        <v>23.23412414040632</v>
       </c>
       <c r="G7">
-        <v>69.31584321374299</v>
+        <v>29.58456452150302</v>
       </c>
       <c r="H7">
-        <v>18.49459409708228</v>
+        <v>1.973532347399571</v>
       </c>
       <c r="I7">
-        <v>33.91967390133171</v>
+        <v>4.021721599580524</v>
       </c>
       <c r="J7">
-        <v>6.164476543945628</v>
+        <v>9.758246168441453</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.90601554561743</v>
       </c>
       <c r="L7">
-        <v>5.759084633730045</v>
+        <v>6.246205984664099</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062625</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>24.89998590939494</v>
+      </c>
+      <c r="P7">
+        <v>18.54818442799838</v>
+      </c>
+      <c r="Q7">
+        <v>17.16808607133618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.012559411800798</v>
+        <v>4.659577590864879</v>
       </c>
       <c r="D8">
-        <v>3.99070543789959</v>
+        <v>5.602023114981503</v>
       </c>
       <c r="E8">
-        <v>6.993092390373004</v>
+        <v>8.58962692318968</v>
       </c>
       <c r="F8">
-        <v>49.97747344385763</v>
+        <v>24.47889966019867</v>
       </c>
       <c r="G8">
-        <v>75.59855713975885</v>
+        <v>31.84227006929931</v>
       </c>
       <c r="H8">
-        <v>19.71905386749544</v>
+        <v>2.277922144272289</v>
       </c>
       <c r="I8">
-        <v>36.49227087827997</v>
+        <v>4.274699805041348</v>
       </c>
       <c r="J8">
-        <v>6.189765248471035</v>
+        <v>10.08381470509818</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.79584380679538</v>
       </c>
       <c r="L8">
-        <v>5.736812619599585</v>
+        <v>6.26390420189904</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>27.13691116768802</v>
+      </c>
+      <c r="P8">
+        <v>19.66674690582895</v>
+      </c>
+      <c r="Q8">
+        <v>18.07690362262231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.987096552111567</v>
+        <v>5.15433382712349</v>
       </c>
       <c r="D9">
-        <v>4.230001989537977</v>
+        <v>5.590670222284606</v>
       </c>
       <c r="E9">
-        <v>7.047380250855989</v>
+        <v>8.606327249162161</v>
       </c>
       <c r="F9">
-        <v>57.09381831936123</v>
+        <v>26.84439607910842</v>
       </c>
       <c r="G9">
-        <v>87.49058987618591</v>
+        <v>35.98320453520093</v>
       </c>
       <c r="H9">
-        <v>22.13923477360925</v>
+        <v>2.837970506554677</v>
       </c>
       <c r="I9">
-        <v>41.48473819010818</v>
+        <v>4.738296571280579</v>
       </c>
       <c r="J9">
-        <v>6.275592338524924</v>
+        <v>10.72723402211952</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.48614306488349</v>
       </c>
       <c r="L9">
-        <v>5.718458387153304</v>
+        <v>6.293894363656298</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380646</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>31.03649045135567</v>
+      </c>
+      <c r="P9">
+        <v>21.70019086549562</v>
+      </c>
+      <c r="Q9">
+        <v>19.80541598659353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.976426723862319</v>
+        <v>5.468676245646777</v>
       </c>
       <c r="D10">
-        <v>4.413428665523337</v>
+        <v>5.558723591587146</v>
       </c>
       <c r="E10">
-        <v>7.112826884979503</v>
+        <v>8.581610476486983</v>
       </c>
       <c r="F10">
-        <v>62.27483430558007</v>
+        <v>28.32993160991546</v>
       </c>
       <c r="G10">
-        <v>96.0566624820072</v>
+        <v>38.59667819098939</v>
       </c>
       <c r="H10">
-        <v>24.00707406707817</v>
+        <v>3.212392718735162</v>
       </c>
       <c r="I10">
-        <v>45.14094566052788</v>
+        <v>5.054158235206953</v>
       </c>
       <c r="J10">
-        <v>6.365107071604943</v>
+        <v>11.14981527210661</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>20.56851958025284</v>
       </c>
       <c r="L10">
-        <v>5.722867415325066</v>
+        <v>6.307211750078312</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203862</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>33.45438602823057</v>
+      </c>
+      <c r="P10">
+        <v>23.11805846082067</v>
+      </c>
+      <c r="Q10">
+        <v>20.91864107257616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.973711930724463</v>
+        <v>5.642995737675161</v>
       </c>
       <c r="D11">
-        <v>4.499789174716248</v>
+        <v>5.294962339611904</v>
       </c>
       <c r="E11">
-        <v>7.149193012995876</v>
+        <v>8.470016691746892</v>
       </c>
       <c r="F11">
-        <v>64.73354469756228</v>
+        <v>27.61270442563684</v>
       </c>
       <c r="G11">
-        <v>99.97241910847336</v>
+        <v>38.23089584193001</v>
       </c>
       <c r="H11">
-        <v>24.9736079445855</v>
+        <v>3.835685527119074</v>
       </c>
       <c r="I11">
-        <v>46.97231881538125</v>
+        <v>5.153284150250459</v>
       </c>
       <c r="J11">
-        <v>6.41277609603355</v>
+        <v>11.0201708517304</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.41414626331479</v>
       </c>
       <c r="L11">
-        <v>5.729437841755485</v>
+        <v>6.372702446284276</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374474</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>33.33300265386197</v>
+      </c>
+      <c r="P11">
+        <v>23.99853064555726</v>
+      </c>
+      <c r="Q11">
+        <v>20.68591701378763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.973035869606757</v>
+        <v>5.777340874316157</v>
       </c>
       <c r="D12">
-        <v>4.533052493680567</v>
+        <v>5.138027001016058</v>
       </c>
       <c r="E12">
-        <v>7.164019815385217</v>
+        <v>8.696221690494085</v>
       </c>
       <c r="F12">
-        <v>65.67635440602074</v>
+        <v>26.71078361914826</v>
       </c>
       <c r="G12">
-        <v>101.4549567168308</v>
+        <v>37.42942615580841</v>
       </c>
       <c r="H12">
-        <v>25.33975026895293</v>
+        <v>4.852182019222143</v>
       </c>
       <c r="I12">
-        <v>47.67203444986151</v>
+        <v>5.174717184457344</v>
       </c>
       <c r="J12">
-        <v>6.431951569778397</v>
+        <v>10.82925263643789</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.09475196109437</v>
       </c>
       <c r="L12">
-        <v>5.732652950695234</v>
+        <v>6.569214900657205</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>32.73752444458712</v>
+      </c>
+      <c r="P12">
+        <v>24.45107216779134</v>
+      </c>
+      <c r="Q12">
+        <v>20.27706495428751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.973164977695339</v>
+        <v>5.850441678560565</v>
       </c>
       <c r="D13">
-        <v>4.525861062596666</v>
+        <v>5.062569041301172</v>
       </c>
       <c r="E13">
-        <v>7.160777692461115</v>
+        <v>9.165643336235856</v>
       </c>
       <c r="F13">
-        <v>65.47324738776899</v>
+        <v>25.55569377220492</v>
       </c>
       <c r="G13">
-        <v>101.1356170780162</v>
+        <v>36.15428120236142</v>
       </c>
       <c r="H13">
-        <v>25.26087394547725</v>
+        <v>6.009808239873972</v>
       </c>
       <c r="I13">
-        <v>47.52132790535151</v>
+        <v>5.137446316900684</v>
       </c>
       <c r="J13">
-        <v>6.427769503460047</v>
+        <v>10.56261144795697</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>19.57682059121305</v>
       </c>
       <c r="L13">
-        <v>5.731926901198061</v>
+        <v>6.861161294879352</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617571</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>31.7100672144302</v>
+      </c>
+      <c r="P13">
+        <v>24.61467197378199</v>
+      </c>
+      <c r="Q13">
+        <v>19.66663576112182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.973648958760513</v>
+        <v>5.866960393570402</v>
       </c>
       <c r="D14">
-        <v>4.502513593572997</v>
+        <v>5.057245222311436</v>
       </c>
       <c r="E14">
-        <v>7.150390969671203</v>
+        <v>9.617229898817065</v>
       </c>
       <c r="F14">
-        <v>64.81108859456124</v>
+        <v>24.61419588120349</v>
       </c>
       <c r="G14">
-        <v>100.0943722935128</v>
+        <v>35.01734610193564</v>
       </c>
       <c r="H14">
-        <v>25.00372265578521</v>
+        <v>6.873059816359993</v>
       </c>
       <c r="I14">
-        <v>47.02988296089124</v>
+        <v>5.085026584221794</v>
       </c>
       <c r="J14">
-        <v>6.414330329600316</v>
+        <v>10.33731970445819</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>19.11060493817811</v>
       </c>
       <c r="L14">
-        <v>5.729687323063559</v>
+        <v>7.115657317767185</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188478</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>30.77680596019118</v>
+      </c>
+      <c r="P14">
+        <v>24.60080967986122</v>
+      </c>
+      <c r="Q14">
+        <v>19.13577353213757</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.973992772215015</v>
+        <v>5.84520225430764</v>
       </c>
       <c r="D15">
-        <v>4.488290402540208</v>
+        <v>5.063996290856375</v>
       </c>
       <c r="E15">
-        <v>7.144169854406497</v>
+        <v>9.733814086004822</v>
       </c>
       <c r="F15">
-        <v>64.4056190701445</v>
+        <v>24.32261451182978</v>
       </c>
       <c r="G15">
-        <v>99.45665433760639</v>
+        <v>34.62041007589035</v>
       </c>
       <c r="H15">
-        <v>24.84625494827915</v>
+        <v>7.069347745133451</v>
       </c>
       <c r="I15">
-        <v>46.72885690534952</v>
+        <v>5.059363112468596</v>
       </c>
       <c r="J15">
-        <v>6.406249024768881</v>
+        <v>10.26350957012363</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.94333102580442</v>
       </c>
       <c r="L15">
-        <v>5.728412541403666</v>
+        <v>7.178256995427834</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549474</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>30.45093425136047</v>
+      </c>
+      <c r="P15">
+        <v>24.53597468847738</v>
+      </c>
+      <c r="Q15">
+        <v>18.9557503822973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.976650714719288</v>
+        <v>5.686632010043104</v>
       </c>
       <c r="D16">
-        <v>4.407854748643409</v>
+        <v>5.09195112590412</v>
       </c>
       <c r="E16">
-        <v>7.110591676219702</v>
+        <v>9.634927379123416</v>
       </c>
       <c r="F16">
-        <v>62.12076840972463</v>
+        <v>23.85367863373592</v>
       </c>
       <c r="G16">
-        <v>95.8005267416721</v>
+        <v>33.66881285743131</v>
       </c>
       <c r="H16">
-        <v>23.94388056361739</v>
+        <v>6.787170516384252</v>
       </c>
       <c r="I16">
-        <v>45.03201460537978</v>
+        <v>4.933225566203405</v>
       </c>
       <c r="J16">
-        <v>6.362141718583163</v>
+        <v>10.12276544464187</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.54753028099797</v>
       </c>
       <c r="L16">
-        <v>5.722535596638936</v>
+        <v>7.104233829104876</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>29.58356568644074</v>
+      </c>
+      <c r="P16">
+        <v>23.92728774464779</v>
+      </c>
+      <c r="Q16">
+        <v>18.56444716001611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.978857181464407</v>
+        <v>5.551853688477983</v>
       </c>
       <c r="D17">
-        <v>4.359346824892367</v>
+        <v>5.110958335823454</v>
       </c>
       <c r="E17">
-        <v>7.09175155700528</v>
+        <v>9.299249445746739</v>
       </c>
       <c r="F17">
-        <v>60.77118586994543</v>
+        <v>24.01076912114085</v>
       </c>
       <c r="G17">
-        <v>93.55859340514122</v>
+        <v>33.56251381043427</v>
       </c>
       <c r="H17">
-        <v>23.41380594831913</v>
+        <v>6.061478043841662</v>
       </c>
       <c r="I17">
-        <v>44.07831406774786</v>
+        <v>4.863902354745454</v>
       </c>
       <c r="J17">
-        <v>6.336944168997404</v>
+        <v>10.13731505667963</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.49725926856017</v>
       </c>
       <c r="L17">
-        <v>5.720145412000067</v>
+        <v>6.902779095475378</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119275</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>29.4268840532214</v>
+      </c>
+      <c r="P17">
+        <v>23.45988587052852</v>
+      </c>
+      <c r="Q17">
+        <v>18.55450476756413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.9803243718934</v>
+        <v>5.452888777609656</v>
       </c>
       <c r="D18">
-        <v>4.331710822529242</v>
+        <v>5.159486196318857</v>
       </c>
       <c r="E18">
-        <v>7.081528379392801</v>
+        <v>8.84109284828002</v>
       </c>
       <c r="F18">
-        <v>59.99517610305097</v>
+        <v>24.73954881436246</v>
       </c>
       <c r="G18">
-        <v>92.28157287260275</v>
+        <v>34.21373824707653</v>
       </c>
       <c r="H18">
-        <v>23.14370572491724</v>
+        <v>4.931125906901773</v>
       </c>
       <c r="I18">
-        <v>43.53036768058146</v>
+        <v>4.837233746477746</v>
       </c>
       <c r="J18">
-        <v>6.323096427856162</v>
+        <v>10.29242205389513</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.76350849068712</v>
       </c>
       <c r="L18">
-        <v>5.719195348749372</v>
+        <v>6.623593838628993</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680427</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>29.88344145957692</v>
+      </c>
+      <c r="P18">
+        <v>23.06627371380925</v>
+      </c>
+      <c r="Q18">
+        <v>18.88734703909201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.980853990341004</v>
+        <v>5.342308638614534</v>
       </c>
       <c r="D19">
-        <v>4.322395453901323</v>
+        <v>5.278919699458952</v>
       </c>
       <c r="E19">
-        <v>7.078169356014517</v>
+        <v>8.515138889406668</v>
       </c>
       <c r="F19">
-        <v>59.7324271997476</v>
+        <v>25.8184280373911</v>
       </c>
       <c r="G19">
-        <v>91.84878956892747</v>
+        <v>35.3311067628818</v>
       </c>
       <c r="H19">
-        <v>23.05238445599014</v>
+        <v>3.758405599476628</v>
       </c>
       <c r="I19">
-        <v>43.3449129501656</v>
+        <v>4.850529612168117</v>
       </c>
       <c r="J19">
-        <v>6.318515232531594</v>
+        <v>10.52966667664856</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.20442617910107</v>
       </c>
       <c r="L19">
-        <v>5.718944687621144</v>
+        <v>6.391197672998445</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880252</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>30.76975075981628</v>
+      </c>
+      <c r="P19">
+        <v>22.77029343421918</v>
+      </c>
+      <c r="Q19">
+        <v>19.42595587227558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.978601513159829</v>
+        <v>5.305446143760118</v>
       </c>
       <c r="D20">
-        <v>4.364482299505197</v>
+        <v>5.572163243329429</v>
       </c>
       <c r="E20">
-        <v>7.093692948186928</v>
+        <v>8.586453363024692</v>
       </c>
       <c r="F20">
-        <v>60.91481577051024</v>
+        <v>27.87107848239899</v>
       </c>
       <c r="G20">
-        <v>93.79476661906536</v>
+        <v>37.79143288240036</v>
       </c>
       <c r="H20">
-        <v>23.46386083124087</v>
+        <v>3.110530127206572</v>
       </c>
       <c r="I20">
-        <v>44.17976746074415</v>
+        <v>4.972143037095286</v>
       </c>
       <c r="J20">
-        <v>6.339558888313418</v>
+        <v>11.01158664685444</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>20.19811881405496</v>
       </c>
       <c r="L20">
-        <v>5.720355428443325</v>
+        <v>6.302243876362075</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>32.80508882516248</v>
+      </c>
+      <c r="P20">
+        <v>22.76123658548581</v>
+      </c>
+      <c r="Q20">
+        <v>20.56661363031621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.973496834655199</v>
+        <v>5.540101340989025</v>
       </c>
       <c r="D21">
-        <v>4.509354789429818</v>
+        <v>5.602397039258422</v>
       </c>
       <c r="E21">
-        <v>7.153412182665586</v>
+        <v>8.627293630991208</v>
       </c>
       <c r="F21">
-        <v>65.00555089225486</v>
+        <v>29.23890181149166</v>
       </c>
       <c r="G21">
-        <v>100.4001885437701</v>
+        <v>40.01276842952566</v>
       </c>
       <c r="H21">
-        <v>25.07924313833826</v>
+        <v>3.414831876866928</v>
       </c>
       <c r="I21">
-        <v>47.17422932472722</v>
+        <v>5.216587943676018</v>
       </c>
       <c r="J21">
-        <v>6.418246098067609</v>
+        <v>11.39251408265382</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21.12971399473259</v>
       </c>
       <c r="L21">
-        <v>5.730324774231453</v>
+        <v>6.320804187681167</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>34.77765371705514</v>
+      </c>
+      <c r="P21">
+        <v>23.7646957424534</v>
+      </c>
+      <c r="Q21">
+        <v>21.53761020681971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.972242500037783</v>
+        <v>5.72221156500693</v>
       </c>
       <c r="D22">
-        <v>4.607399462594141</v>
+        <v>5.603523300878103</v>
       </c>
       <c r="E22">
-        <v>7.198663071600985</v>
+        <v>8.634385413239999</v>
       </c>
       <c r="F22">
-        <v>67.75313180334602</v>
+        <v>30.06024348200195</v>
       </c>
       <c r="G22">
-        <v>104.7190541568761</v>
+        <v>41.37972120551424</v>
       </c>
       <c r="H22">
-        <v>26.14624714776081</v>
+        <v>3.603429106334207</v>
       </c>
       <c r="I22">
-        <v>49.21207732095208</v>
+        <v>5.370609019253934</v>
       </c>
       <c r="J22">
-        <v>6.476304987060008</v>
+        <v>11.63098838892878</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.72169160158604</v>
       </c>
       <c r="L22">
-        <v>5.741122267646058</v>
+        <v>6.329932215122712</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050592</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>35.95228012831112</v>
+      </c>
+      <c r="P22">
+        <v>24.41169691373127</v>
+      </c>
+      <c r="Q22">
+        <v>22.13996585718433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.97270338737144</v>
+        <v>5.656017545271888</v>
       </c>
       <c r="D23">
-        <v>4.554706469285193</v>
+        <v>5.599919461287428</v>
       </c>
       <c r="E23">
-        <v>7.173900952524506</v>
+        <v>8.630246641069151</v>
       </c>
       <c r="F23">
-        <v>66.28553338547405</v>
+        <v>29.64792204120871</v>
       </c>
       <c r="G23">
-        <v>102.4126265634028</v>
+        <v>40.69967313064685</v>
       </c>
       <c r="H23">
-        <v>25.5763219638398</v>
+        <v>3.504314801936911</v>
       </c>
       <c r="I23">
-        <v>48.12394817062486</v>
+        <v>5.288604939420575</v>
       </c>
       <c r="J23">
-        <v>6.444662201738896</v>
+        <v>11.51367471850069</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.43919720946007</v>
       </c>
       <c r="L23">
-        <v>5.734940250972721</v>
+        <v>6.325511994559142</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>35.34043794259868</v>
+      </c>
+      <c r="P23">
+        <v>24.06615251815951</v>
+      </c>
+      <c r="Q23">
+        <v>21.84169022173294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.978716485188238</v>
+        <v>5.342989408732866</v>
       </c>
       <c r="D24">
-        <v>4.362159777076253</v>
+        <v>5.594678253877426</v>
       </c>
       <c r="E24">
-        <v>7.092813358462506</v>
+        <v>8.616070522300737</v>
       </c>
       <c r="F24">
-        <v>60.84988118423406</v>
+        <v>28.01188021203885</v>
       </c>
       <c r="G24">
-        <v>93.68800064984946</v>
+        <v>37.9628476847242</v>
       </c>
       <c r="H24">
-        <v>23.44122879915172</v>
+        <v>3.119718115138938</v>
       </c>
       <c r="I24">
-        <v>44.13389938566748</v>
+        <v>4.971601885045541</v>
       </c>
       <c r="J24">
-        <v>6.338374793484171</v>
+        <v>11.04878853951456</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>20.28825988473519</v>
       </c>
       <c r="L24">
-        <v>5.72025916421086</v>
+        <v>6.307286956668245</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911917</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>32.89532680149325</v>
+      </c>
+      <c r="P24">
+        <v>22.71696087881298</v>
+      </c>
+      <c r="Q24">
+        <v>20.65003152382792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.99268376432666</v>
+        <v>4.976722351050627</v>
       </c>
       <c r="D25">
-        <v>4.164282244540344</v>
+        <v>5.596431769815598</v>
       </c>
       <c r="E25">
-        <v>7.028514396542092</v>
+        <v>8.60211041883187</v>
       </c>
       <c r="F25">
-        <v>55.18037751471089</v>
+        <v>26.17760987850841</v>
       </c>
       <c r="G25">
-        <v>84.31492145129263</v>
+        <v>34.82573156515557</v>
       </c>
       <c r="H25">
-        <v>21.48189226217031</v>
+        <v>2.688543804034273</v>
       </c>
       <c r="I25">
-        <v>40.13855205133925</v>
+        <v>4.615738556606883</v>
       </c>
       <c r="J25">
-        <v>6.248082181768794</v>
+        <v>10.53886781811205</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.98788801318039</v>
       </c>
       <c r="L25">
-        <v>5.72048179745941</v>
+        <v>6.285642332152985</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088411</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>30.01839693152892</v>
+      </c>
+      <c r="P25">
+        <v>21.17195680097847</v>
+      </c>
+      <c r="Q25">
+        <v>19.31185251378921</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.768425086631739</v>
+        <v>3.737946862304535</v>
       </c>
       <c r="D2">
-        <v>5.596727484181026</v>
+        <v>5.630958897788042</v>
       </c>
       <c r="E2">
-        <v>8.591729076228056</v>
+        <v>8.504027675097255</v>
       </c>
       <c r="F2">
-        <v>24.84265990317508</v>
+        <v>23.88465601323963</v>
       </c>
       <c r="G2">
-        <v>32.49571548446445</v>
+        <v>30.05886227642021</v>
       </c>
       <c r="H2">
-        <v>2.359293962345301</v>
+        <v>2.25932179714747</v>
       </c>
       <c r="I2">
-        <v>4.34209061193095</v>
+        <v>4.184622092495414</v>
       </c>
       <c r="J2">
-        <v>10.18429402641145</v>
+        <v>10.43654550030158</v>
       </c>
       <c r="K2">
-        <v>18.07428732131131</v>
+        <v>16.80050929293731</v>
       </c>
       <c r="L2">
-        <v>6.268883083630704</v>
+        <v>14.93520547115077</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.5298699338909</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.214323021837759</v>
       </c>
       <c r="O2">
-        <v>27.7237053624561</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>19.95662990903238</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>18.34783065972573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>27.2739204598158</v>
+      </c>
+      <c r="R2">
+        <v>20.05728347900557</v>
+      </c>
+      <c r="S2">
+        <v>17.50061280732816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.564914464829829</v>
+        <v>3.611878050296284</v>
       </c>
       <c r="D3">
-        <v>5.604126189836936</v>
+        <v>5.633553314521909</v>
       </c>
       <c r="E3">
-        <v>8.584945831875928</v>
+        <v>8.512116867435472</v>
       </c>
       <c r="F3">
-        <v>23.87215573458503</v>
+        <v>23.03923495469389</v>
       </c>
       <c r="G3">
-        <v>30.75490756459506</v>
+        <v>28.51905662647348</v>
       </c>
       <c r="H3">
-        <v>2.124620233649877</v>
+        <v>2.040501315877715</v>
       </c>
       <c r="I3">
-        <v>4.147195686783094</v>
+        <v>4.019095384880408</v>
       </c>
       <c r="J3">
-        <v>9.927383718113949</v>
+        <v>10.21345245580418</v>
       </c>
       <c r="K3">
-        <v>17.38055030053807</v>
+        <v>16.26355225261855</v>
       </c>
       <c r="L3">
-        <v>6.255566886856771</v>
+        <v>14.79227324084108</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.780173973782857</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.209839030618308</v>
       </c>
       <c r="O3">
-        <v>26.02453183336386</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>19.09578051721122</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>17.63905607838677</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>25.62322151334685</v>
+      </c>
+      <c r="R3">
+        <v>19.1835522455624</v>
+      </c>
+      <c r="S3">
+        <v>16.90259514099712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.430967281286638</v>
+        <v>3.530331779491616</v>
       </c>
       <c r="D4">
-        <v>5.610319390983347</v>
+        <v>5.637432578913475</v>
       </c>
       <c r="E4">
-        <v>8.580643858497876</v>
+        <v>8.517503382010769</v>
       </c>
       <c r="F4">
-        <v>23.26296382586897</v>
+        <v>22.50886207701099</v>
       </c>
       <c r="G4">
-        <v>29.64150703188587</v>
+        <v>27.53543407115865</v>
       </c>
       <c r="H4">
-        <v>1.975525633330149</v>
+        <v>1.901360011148608</v>
       </c>
       <c r="I4">
-        <v>4.023112955324911</v>
+        <v>3.913716614692566</v>
       </c>
       <c r="J4">
-        <v>9.768606014474871</v>
+        <v>10.07393946933636</v>
       </c>
       <c r="K4">
-        <v>16.94178137527781</v>
+        <v>15.92359507994057</v>
       </c>
       <c r="L4">
-        <v>6.246678065204075</v>
+        <v>14.69675083671883</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.313820834694944</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.206553210912803</v>
       </c>
       <c r="O4">
-        <v>24.91779766112424</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>18.54887907469061</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>17.19343959542111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>24.54784018436783</v>
+      </c>
+      <c r="R4">
+        <v>18.62832635399044</v>
+      </c>
+      <c r="S4">
+        <v>16.52667661259708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.364385527241939</v>
+        <v>3.491099123545164</v>
       </c>
       <c r="D5">
-        <v>5.613942165124413</v>
+        <v>5.640404384430546</v>
       </c>
       <c r="E5">
-        <v>8.578881610544837</v>
+        <v>8.519921556567832</v>
       </c>
       <c r="F5">
-        <v>23.00401291072946</v>
+        <v>22.2827579059152</v>
       </c>
       <c r="G5">
-        <v>29.1616356035632</v>
+        <v>27.11028166210043</v>
       </c>
       <c r="H5">
-        <v>1.913141508125528</v>
+        <v>1.84312231361487</v>
       </c>
       <c r="I5">
-        <v>3.971158400100269</v>
+        <v>3.869816820216965</v>
       </c>
       <c r="J5">
-        <v>9.700869225970225</v>
+        <v>10.01383537278876</v>
       </c>
       <c r="K5">
-        <v>16.74993456982648</v>
+        <v>15.773126738481</v>
       </c>
       <c r="L5">
-        <v>6.242744071186356</v>
+        <v>14.64870213621317</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.115556176583443</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.204970657826411</v>
       </c>
       <c r="O5">
-        <v>24.44738966837328</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>18.32239635059929</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>17.00256288303271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>24.09068572683501</v>
+      </c>
+      <c r="R5">
+        <v>18.39833730997607</v>
+      </c>
+      <c r="S5">
+        <v>16.36485831837526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.341305284385276</v>
+        <v>3.478597226984866</v>
       </c>
       <c r="D6">
-        <v>5.615425742016692</v>
+        <v>5.641955198323997</v>
       </c>
       <c r="E6">
-        <v>8.578637380912134</v>
+        <v>8.520494058878008</v>
       </c>
       <c r="F6">
-        <v>22.951439128729</v>
+        <v>22.23600893886168</v>
       </c>
       <c r="G6">
-        <v>29.06247672000208</v>
+        <v>27.02065850125799</v>
       </c>
       <c r="H6">
-        <v>1.902277332907018</v>
+        <v>1.832989964558752</v>
       </c>
       <c r="I6">
-        <v>3.962283057783844</v>
+        <v>3.862641414251158</v>
       </c>
       <c r="J6">
-        <v>9.686127342179219</v>
+        <v>10.00055682965717</v>
       </c>
       <c r="K6">
-        <v>16.7056034508536</v>
+        <v>15.73637300007812</v>
       </c>
       <c r="L6">
-        <v>6.241924052447584</v>
+        <v>14.63186075585592</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.07340585718287</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.204570840530703</v>
       </c>
       <c r="O6">
-        <v>24.36400146828744</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>18.28540457448117</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>16.96228340264121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>24.00961956947511</v>
+      </c>
+      <c r="R6">
+        <v>18.36073785348701</v>
+      </c>
+      <c r="S6">
+        <v>16.32977633670319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.397971882667474</v>
+        <v>3.515317231157555</v>
       </c>
       <c r="D7">
-        <v>5.612706540694264</v>
+        <v>5.642028871271165</v>
       </c>
       <c r="E7">
-        <v>8.580765080286341</v>
+        <v>8.518345255235308</v>
       </c>
       <c r="F7">
-        <v>23.23412414040632</v>
+        <v>22.46651887915484</v>
       </c>
       <c r="G7">
-        <v>29.58456452150302</v>
+        <v>27.58579601793572</v>
       </c>
       <c r="H7">
-        <v>1.973532347399571</v>
+        <v>1.89893009086647</v>
       </c>
       <c r="I7">
-        <v>4.021721599580524</v>
+        <v>3.912725623757038</v>
       </c>
       <c r="J7">
-        <v>9.758246168441453</v>
+        <v>10.00965715556792</v>
       </c>
       <c r="K7">
-        <v>16.90601554561743</v>
+        <v>15.87967704349287</v>
       </c>
       <c r="L7">
-        <v>6.246205984664099</v>
+        <v>14.66487174756793</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.277724003989226</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.206001899116901</v>
       </c>
       <c r="O7">
-        <v>24.89998590939494</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>18.54818442799838</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>17.16808607133618</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>24.52362511258593</v>
+      </c>
+      <c r="R7">
+        <v>18.62891682628693</v>
+      </c>
+      <c r="S7">
+        <v>16.48935213112123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.659577590864879</v>
+        <v>3.680462743405894</v>
       </c>
       <c r="D8">
-        <v>5.602023114981503</v>
+        <v>5.641071901338028</v>
       </c>
       <c r="E8">
-        <v>8.58962692318968</v>
+        <v>8.50869011540709</v>
       </c>
       <c r="F8">
-        <v>24.47889966019867</v>
+        <v>23.51742330489698</v>
       </c>
       <c r="G8">
-        <v>31.84227006929931</v>
+        <v>29.80355473191936</v>
       </c>
       <c r="H8">
-        <v>2.277922144272289</v>
+        <v>2.181640775082149</v>
       </c>
       <c r="I8">
-        <v>4.274699805041348</v>
+        <v>4.126448352900557</v>
       </c>
       <c r="J8">
-        <v>10.08381470509818</v>
+        <v>10.17267893256633</v>
       </c>
       <c r="K8">
-        <v>17.79584380679538</v>
+        <v>16.54429588389106</v>
       </c>
       <c r="L8">
-        <v>6.26390420189904</v>
+        <v>14.83423538360351</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.21384854359952</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.211907981619531</v>
       </c>
       <c r="O8">
-        <v>27.13691116768802</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>19.66674690582895</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>18.07690362262231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>26.68281766745954</v>
+      </c>
+      <c r="R8">
+        <v>19.7673886199765</v>
+      </c>
+      <c r="S8">
+        <v>17.22629798115942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.15433382712349</v>
+        <v>3.992198022851597</v>
       </c>
       <c r="D9">
-        <v>5.590670222284606</v>
+        <v>5.646645533040287</v>
       </c>
       <c r="E9">
-        <v>8.606327249162161</v>
+        <v>8.491650741528311</v>
       </c>
       <c r="F9">
-        <v>26.84439607910842</v>
+        <v>25.57448675216112</v>
       </c>
       <c r="G9">
-        <v>35.98320453520093</v>
+        <v>33.52607893356807</v>
       </c>
       <c r="H9">
-        <v>2.837970506554677</v>
+        <v>2.702761827770461</v>
       </c>
       <c r="I9">
-        <v>4.738296571280579</v>
+        <v>4.519004549984142</v>
       </c>
       <c r="J9">
-        <v>10.72723402211952</v>
+        <v>10.68487781913309</v>
       </c>
       <c r="K9">
-        <v>19.48614306488349</v>
+        <v>17.85199540073106</v>
       </c>
       <c r="L9">
-        <v>6.293894363656298</v>
+        <v>15.17222510801982</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.04793054807983</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.220688178533303</v>
       </c>
       <c r="O9">
-        <v>31.03649045135567</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>21.70019086549562</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>19.80541598659353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>30.46728895243457</v>
+      </c>
+      <c r="R9">
+        <v>21.83131109289054</v>
+      </c>
+      <c r="S9">
+        <v>18.68094685588271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.468676245646777</v>
+        <v>4.206608416293132</v>
       </c>
       <c r="D10">
-        <v>5.558723591587146</v>
+        <v>5.633802739508282</v>
       </c>
       <c r="E10">
-        <v>8.581610476486983</v>
+        <v>8.437760550702327</v>
       </c>
       <c r="F10">
-        <v>28.32993160991546</v>
+        <v>26.78234841588</v>
       </c>
       <c r="G10">
-        <v>38.59667819098939</v>
+        <v>36.36087191111613</v>
       </c>
       <c r="H10">
-        <v>3.212392718735162</v>
+        <v>3.047512167152711</v>
       </c>
       <c r="I10">
-        <v>5.054158235206953</v>
+        <v>4.784074646086211</v>
       </c>
       <c r="J10">
-        <v>11.14981527210661</v>
+        <v>10.72737203885334</v>
       </c>
       <c r="K10">
-        <v>20.56851958025284</v>
+        <v>18.62851609326962</v>
       </c>
       <c r="L10">
-        <v>6.307211750078312</v>
+        <v>15.29773111914379</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.21967157681432</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.217445544116199</v>
       </c>
       <c r="O10">
-        <v>33.45438602823057</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>23.11805846082067</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>20.91864107257616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>32.78087526351223</v>
+      </c>
+      <c r="R10">
+        <v>23.27538121531928</v>
+      </c>
+      <c r="S10">
+        <v>19.54602324763106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.642995737675161</v>
+        <v>4.329984225620735</v>
       </c>
       <c r="D11">
-        <v>5.294962339611904</v>
+        <v>5.319937133911631</v>
       </c>
       <c r="E11">
-        <v>8.470016691746892</v>
+        <v>8.220992295521592</v>
       </c>
       <c r="F11">
-        <v>27.61270442563684</v>
+        <v>25.88907390942967</v>
       </c>
       <c r="G11">
-        <v>38.23089584193001</v>
+        <v>37.02006552256333</v>
       </c>
       <c r="H11">
-        <v>3.835685527119074</v>
+        <v>3.687492743430048</v>
       </c>
       <c r="I11">
-        <v>5.153284150250459</v>
+        <v>4.864489005186641</v>
       </c>
       <c r="J11">
-        <v>11.0201708517304</v>
+        <v>9.998423164880075</v>
       </c>
       <c r="K11">
-        <v>20.41414626331479</v>
+        <v>18.33273080974384</v>
       </c>
       <c r="L11">
-        <v>6.372702446284276</v>
+        <v>14.90802265030718</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.22037498611909</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.265151797828928</v>
       </c>
       <c r="O11">
-        <v>33.33300265386197</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>23.99853064555726</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>20.68591701378763</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>32.58769672547191</v>
+      </c>
+      <c r="R11">
+        <v>24.17386979273055</v>
+      </c>
+      <c r="S11">
+        <v>19.14957581235303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.777340874316157</v>
+        <v>4.422109707711182</v>
       </c>
       <c r="D12">
-        <v>5.138027001016058</v>
+        <v>5.09743491190893</v>
       </c>
       <c r="E12">
-        <v>8.696221690494085</v>
+        <v>8.364322582691196</v>
       </c>
       <c r="F12">
-        <v>26.71078361914826</v>
+        <v>24.94093230919842</v>
       </c>
       <c r="G12">
-        <v>37.42942615580841</v>
+        <v>36.7455120593568</v>
       </c>
       <c r="H12">
-        <v>4.852182019222143</v>
+        <v>4.734968434059679</v>
       </c>
       <c r="I12">
-        <v>5.174717184457344</v>
+        <v>4.880396114722664</v>
       </c>
       <c r="J12">
-        <v>10.82925263643789</v>
+        <v>9.563013662915901</v>
       </c>
       <c r="K12">
-        <v>20.09475196109437</v>
+        <v>17.9879103013626</v>
       </c>
       <c r="L12">
-        <v>6.569214900657205</v>
+        <v>14.60287597280127</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.03150981657547</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.451952209507918</v>
       </c>
       <c r="O12">
-        <v>32.73752444458712</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>24.45107216779134</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>20.27706495428751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>31.97127858116917</v>
+      </c>
+      <c r="R12">
+        <v>24.63217104050083</v>
+      </c>
+      <c r="S12">
+        <v>18.69353247006893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.850441678560565</v>
+        <v>4.47651993629794</v>
       </c>
       <c r="D13">
-        <v>5.062569041301172</v>
+        <v>4.947875077599652</v>
       </c>
       <c r="E13">
-        <v>9.165643336235856</v>
+        <v>8.782200969588569</v>
       </c>
       <c r="F13">
-        <v>25.55569377220492</v>
+        <v>23.8701297457712</v>
       </c>
       <c r="G13">
-        <v>36.15428120236142</v>
+        <v>35.44535673636956</v>
       </c>
       <c r="H13">
-        <v>6.009808239873972</v>
+        <v>5.920262507169893</v>
       </c>
       <c r="I13">
-        <v>5.137446316900684</v>
+        <v>4.849755945122641</v>
       </c>
       <c r="J13">
-        <v>10.56261144795697</v>
+        <v>9.412094998670719</v>
       </c>
       <c r="K13">
-        <v>19.57682059121305</v>
+        <v>17.55788710877304</v>
       </c>
       <c r="L13">
-        <v>6.861161294879352</v>
+        <v>14.32332091776353</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.66427900924499</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.741622282176864</v>
       </c>
       <c r="O13">
-        <v>31.7100672144302</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>24.61467197378199</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>19.66663576112182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>30.9735742198551</v>
+      </c>
+      <c r="R13">
+        <v>24.78950786226449</v>
+      </c>
+      <c r="S13">
+        <v>18.1528564809575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.866960393570402</v>
+        <v>4.494711104576508</v>
       </c>
       <c r="D14">
-        <v>5.057245222311436</v>
+        <v>4.893768444555144</v>
       </c>
       <c r="E14">
-        <v>9.617229898817065</v>
+        <v>9.218933080993374</v>
       </c>
       <c r="F14">
-        <v>24.61419588120349</v>
+        <v>23.04656238385107</v>
       </c>
       <c r="G14">
-        <v>35.01734610193564</v>
+        <v>34.04887289280226</v>
       </c>
       <c r="H14">
-        <v>6.873059816359993</v>
+        <v>6.799683064126167</v>
       </c>
       <c r="I14">
-        <v>5.085026584221794</v>
+        <v>4.807716264809889</v>
       </c>
       <c r="J14">
-        <v>10.33731970445819</v>
+        <v>9.421700037736167</v>
       </c>
       <c r="K14">
-        <v>19.11060493817811</v>
+        <v>17.20496078377974</v>
       </c>
       <c r="L14">
-        <v>7.115657317767185</v>
+        <v>14.12957014715333</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.31484759593248</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.998434912865378</v>
       </c>
       <c r="O14">
-        <v>30.77680596019118</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>24.60080967986122</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>19.13577353213757</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>30.08390821915182</v>
+      </c>
+      <c r="R14">
+        <v>24.76585846904185</v>
+      </c>
+      <c r="S14">
+        <v>17.72350435546158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.84520225430764</v>
+        <v>4.482201794978411</v>
       </c>
       <c r="D15">
-        <v>5.063996290856375</v>
+        <v>4.890805447191181</v>
       </c>
       <c r="E15">
-        <v>9.733814086004822</v>
+        <v>9.338284061082383</v>
       </c>
       <c r="F15">
-        <v>24.32261451182978</v>
+        <v>22.80951398102584</v>
       </c>
       <c r="G15">
-        <v>34.62041007589035</v>
+        <v>33.48565437228679</v>
       </c>
       <c r="H15">
-        <v>7.069347745133451</v>
+        <v>7.000206636792214</v>
       </c>
       <c r="I15">
-        <v>5.059363112468596</v>
+        <v>4.787625489989405</v>
       </c>
       <c r="J15">
-        <v>10.26350957012363</v>
+        <v>9.471355520339685</v>
       </c>
       <c r="K15">
-        <v>18.94333102580442</v>
+        <v>17.08848348780842</v>
       </c>
       <c r="L15">
-        <v>7.178256995427834</v>
+        <v>14.07877141575051</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.18121955248443</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.062998891589197</v>
       </c>
       <c r="O15">
-        <v>30.45093425136047</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>24.53597468847738</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>18.9557503822973</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>29.778695991654</v>
+      </c>
+      <c r="R15">
+        <v>24.69625642844552</v>
+      </c>
+      <c r="S15">
+        <v>17.59141977531979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.686632010043104</v>
+        <v>4.365356263084308</v>
       </c>
       <c r="D16">
-        <v>5.09195112590412</v>
+        <v>4.931744288514657</v>
       </c>
       <c r="E16">
-        <v>9.634927379123416</v>
+        <v>9.282631313618127</v>
       </c>
       <c r="F16">
-        <v>23.85367863373592</v>
+        <v>22.55836603644886</v>
       </c>
       <c r="G16">
-        <v>33.66881285743131</v>
+        <v>31.69081919319564</v>
       </c>
       <c r="H16">
-        <v>6.787170516384252</v>
+        <v>6.725345512020152</v>
       </c>
       <c r="I16">
-        <v>4.933225566203405</v>
+        <v>4.686396401177956</v>
       </c>
       <c r="J16">
-        <v>10.12276544464187</v>
+        <v>9.883679455713995</v>
       </c>
       <c r="K16">
-        <v>18.54753028099797</v>
+        <v>16.88987420651712</v>
       </c>
       <c r="L16">
-        <v>7.104233829104876</v>
+        <v>14.10708848571633</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.793654602754</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.999998862219936</v>
       </c>
       <c r="O16">
-        <v>29.58356568644074</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>23.92728774464779</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>18.56444716001611</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>28.99684192982366</v>
+      </c>
+      <c r="R16">
+        <v>24.06719235789189</v>
+      </c>
+      <c r="S16">
+        <v>17.39643999991882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.551853688477983</v>
+        <v>4.265885458843368</v>
       </c>
       <c r="D17">
-        <v>5.110958335823454</v>
+        <v>4.980714836763603</v>
       </c>
       <c r="E17">
-        <v>9.299249445746739</v>
+        <v>8.98077515681368</v>
       </c>
       <c r="F17">
-        <v>24.01076912114085</v>
+        <v>22.7994228769883</v>
       </c>
       <c r="G17">
-        <v>33.56251381043427</v>
+        <v>31.20663860926097</v>
       </c>
       <c r="H17">
-        <v>6.061478043841662</v>
+        <v>5.997649643998366</v>
       </c>
       <c r="I17">
-        <v>4.863902354745454</v>
+        <v>4.630125326749483</v>
       </c>
       <c r="J17">
-        <v>10.13731505667963</v>
+        <v>10.13107432486003</v>
       </c>
       <c r="K17">
-        <v>18.49725926856017</v>
+        <v>16.91577942369374</v>
       </c>
       <c r="L17">
-        <v>6.902779095475378</v>
+        <v>14.22668947197078</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.67441995937903</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.804788803814887</v>
       </c>
       <c r="O17">
-        <v>29.4268840532214</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>23.45988587052852</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>18.55450476756413</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>28.87448280587205</v>
+      </c>
+      <c r="R17">
+        <v>23.59120282009006</v>
+      </c>
+      <c r="S17">
+        <v>17.46479244911934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.452888777609656</v>
+        <v>4.18776185513679</v>
       </c>
       <c r="D18">
-        <v>5.159486196318857</v>
+        <v>5.07543232886081</v>
       </c>
       <c r="E18">
-        <v>8.84109284828002</v>
+        <v>8.561417881118679</v>
       </c>
       <c r="F18">
-        <v>24.73954881436246</v>
+        <v>23.53298470035472</v>
       </c>
       <c r="G18">
-        <v>34.21373824707653</v>
+        <v>31.65887483009217</v>
       </c>
       <c r="H18">
-        <v>4.931125906901773</v>
+        <v>4.854052537263486</v>
       </c>
       <c r="I18">
-        <v>4.837233746477746</v>
+        <v>4.60727463818512</v>
       </c>
       <c r="J18">
-        <v>10.29242205389513</v>
+        <v>10.3677186618333</v>
       </c>
       <c r="K18">
-        <v>18.76350849068712</v>
+        <v>17.18041502598665</v>
       </c>
       <c r="L18">
-        <v>6.623593838628993</v>
+        <v>14.46909092683875</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.80878004792829</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.529853783088573</v>
       </c>
       <c r="O18">
-        <v>29.88344145957692</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>23.06627371380925</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>18.88734703909201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>29.33555092242184</v>
+      </c>
+      <c r="R18">
+        <v>23.19577371064882</v>
+      </c>
+      <c r="S18">
+        <v>17.80682183010022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.342308638614534</v>
+        <v>4.115943865570677</v>
       </c>
       <c r="D19">
-        <v>5.278919699458952</v>
+        <v>5.25263390450446</v>
       </c>
       <c r="E19">
-        <v>8.515138889406668</v>
+        <v>8.288254133339565</v>
       </c>
       <c r="F19">
-        <v>25.8184280373911</v>
+        <v>24.56702802273984</v>
       </c>
       <c r="G19">
-        <v>35.3311067628818</v>
+        <v>32.66089852306794</v>
       </c>
       <c r="H19">
-        <v>3.758405599476628</v>
+        <v>3.652806546300696</v>
       </c>
       <c r="I19">
-        <v>4.850529612168117</v>
+        <v>4.618961353868562</v>
       </c>
       <c r="J19">
-        <v>10.52966667664856</v>
+        <v>10.60370378940899</v>
       </c>
       <c r="K19">
-        <v>19.20442617910107</v>
+        <v>17.56937073629141</v>
       </c>
       <c r="L19">
-        <v>6.391197672998445</v>
+        <v>14.76014033096267</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.09756162232072</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.301701718141593</v>
       </c>
       <c r="O19">
-        <v>30.76975075981628</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>22.77029343421918</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>19.42595587227558</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>30.20734036778967</v>
+      </c>
+      <c r="R19">
+        <v>22.90234630056021</v>
+      </c>
+      <c r="S19">
+        <v>18.31105654949321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.305446143760118</v>
+        <v>4.117483481041286</v>
       </c>
       <c r="D20">
-        <v>5.572163243329429</v>
+        <v>5.636785033783704</v>
       </c>
       <c r="E20">
-        <v>8.586453363024692</v>
+        <v>8.449313442063005</v>
       </c>
       <c r="F20">
-        <v>27.87107848239899</v>
+        <v>26.44340950857114</v>
       </c>
       <c r="G20">
-        <v>37.79143288240036</v>
+        <v>35.19958555392827</v>
       </c>
       <c r="H20">
-        <v>3.110530127206572</v>
+        <v>2.955496220036896</v>
       </c>
       <c r="I20">
-        <v>4.972143037095286</v>
+        <v>4.720118951462681</v>
       </c>
       <c r="J20">
-        <v>11.01158664685444</v>
+        <v>10.86648629663782</v>
       </c>
       <c r="K20">
-        <v>20.19811881405496</v>
+        <v>18.37422744444156</v>
       </c>
       <c r="L20">
-        <v>6.302243876362075</v>
+        <v>15.22866871962766</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.87386960271889</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.217437511442748</v>
       </c>
       <c r="O20">
-        <v>32.80508882516248</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>22.76123658548581</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>20.56661363031621</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>32.17805110010578</v>
+      </c>
+      <c r="R20">
+        <v>22.90746689007217</v>
+      </c>
+      <c r="S20">
+        <v>19.30159808883672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.540101340989025</v>
+        <v>4.295741019151007</v>
       </c>
       <c r="D21">
-        <v>5.602397039258422</v>
+        <v>5.732043037255004</v>
       </c>
       <c r="E21">
-        <v>8.627293630991208</v>
+        <v>8.495462716525502</v>
       </c>
       <c r="F21">
-        <v>29.23890181149166</v>
+        <v>27.35598774291384</v>
       </c>
       <c r="G21">
-        <v>40.01276842952566</v>
+        <v>39.11610029456774</v>
       </c>
       <c r="H21">
-        <v>3.414831876866928</v>
+        <v>3.227035759901124</v>
       </c>
       <c r="I21">
-        <v>5.216587943676018</v>
+        <v>4.91613413743521</v>
       </c>
       <c r="J21">
-        <v>11.39251408265382</v>
+        <v>10.05489305479182</v>
       </c>
       <c r="K21">
-        <v>21.12971399473259</v>
+        <v>18.89496511330363</v>
       </c>
       <c r="L21">
-        <v>6.320804187681167</v>
+        <v>15.27763350214267</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.7009488139179</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.223375898949415</v>
       </c>
       <c r="O21">
-        <v>34.77765371705514</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>23.7646957424534</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>21.53761020681971</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>33.97251685120379</v>
+      </c>
+      <c r="R21">
+        <v>23.95277994843436</v>
+      </c>
+      <c r="S21">
+        <v>19.86535404700728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.72221156500693</v>
+        <v>4.425016645815263</v>
       </c>
       <c r="D22">
-        <v>5.603523300878103</v>
+        <v>5.776702547014886</v>
       </c>
       <c r="E22">
-        <v>8.634385413239999</v>
+        <v>8.503918539759828</v>
       </c>
       <c r="F22">
-        <v>30.06024348200195</v>
+        <v>27.87370296393048</v>
       </c>
       <c r="G22">
-        <v>41.37972120551424</v>
+        <v>41.65947523857938</v>
       </c>
       <c r="H22">
-        <v>3.603429106334207</v>
+        <v>3.394612357168855</v>
       </c>
       <c r="I22">
-        <v>5.370609019253934</v>
+        <v>5.038253820920394</v>
       </c>
       <c r="J22">
-        <v>11.63098838892878</v>
+        <v>9.48159818261502</v>
       </c>
       <c r="K22">
-        <v>21.72169160158604</v>
+        <v>19.21608311390266</v>
       </c>
       <c r="L22">
-        <v>6.329932215122712</v>
+        <v>15.29918272207917</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.21825793856245</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.224173729356515</v>
       </c>
       <c r="O22">
-        <v>35.95228012831112</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>24.41169691373127</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>22.13996585718433</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>35.02992454975094</v>
+      </c>
+      <c r="R22">
+        <v>24.62746875212614</v>
+      </c>
+      <c r="S22">
+        <v>20.19531724250961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.656017545271888</v>
+        <v>4.365065491421005</v>
       </c>
       <c r="D23">
-        <v>5.599919461287428</v>
+        <v>5.743434118265037</v>
       </c>
       <c r="E23">
-        <v>8.630246641069151</v>
+        <v>8.496537352115668</v>
       </c>
       <c r="F23">
-        <v>29.64792204120871</v>
+        <v>27.65447278875897</v>
       </c>
       <c r="G23">
-        <v>40.69967313064685</v>
+        <v>40.14103862977239</v>
       </c>
       <c r="H23">
-        <v>3.504314801936911</v>
+        <v>3.307646439533323</v>
       </c>
       <c r="I23">
-        <v>5.288604939420575</v>
+        <v>4.973016356562603</v>
       </c>
       <c r="J23">
-        <v>11.51367471850069</v>
+        <v>9.913185345540812</v>
       </c>
       <c r="K23">
-        <v>21.43919720946007</v>
+        <v>19.09920573697735</v>
       </c>
       <c r="L23">
-        <v>6.325511994559142</v>
+        <v>15.32508082886822</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.98653688384827</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.224227414846673</v>
       </c>
       <c r="O23">
-        <v>35.34043794259868</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>24.06615251815951</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>21.84169022173294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>34.49328833671812</v>
+      </c>
+      <c r="R23">
+        <v>24.26428239949136</v>
+      </c>
+      <c r="S23">
+        <v>20.07028182935935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.342989408732866</v>
+        <v>4.130102006662451</v>
       </c>
       <c r="D24">
-        <v>5.594678253877426</v>
+        <v>5.663713756927423</v>
       </c>
       <c r="E24">
-        <v>8.616070522300737</v>
+        <v>8.486125044970064</v>
       </c>
       <c r="F24">
-        <v>28.01188021203885</v>
+        <v>26.58156050051498</v>
       </c>
       <c r="G24">
-        <v>37.9628476847242</v>
+        <v>35.34728423722687</v>
       </c>
       <c r="H24">
-        <v>3.119718115138938</v>
+        <v>2.96424323467087</v>
       </c>
       <c r="I24">
-        <v>4.971601885045541</v>
+        <v>4.717687654149857</v>
       </c>
       <c r="J24">
-        <v>11.04878853951456</v>
+        <v>10.90996982720545</v>
       </c>
       <c r="K24">
-        <v>20.28825988473519</v>
+        <v>18.45951055629634</v>
       </c>
       <c r="L24">
-        <v>6.307286956668245</v>
+        <v>15.29358381918659</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.93603251790038</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.223368785983463</v>
       </c>
       <c r="O24">
-        <v>32.89532680149325</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>22.71696087881298</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>20.65003152382792</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>32.26760985728276</v>
+      </c>
+      <c r="R24">
+        <v>22.86324497128701</v>
+      </c>
+      <c r="S24">
+        <v>19.38300566521096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.976722351050627</v>
+        <v>3.888913310887451</v>
       </c>
       <c r="D25">
-        <v>5.596431769815598</v>
+        <v>5.645578617673412</v>
       </c>
       <c r="E25">
-        <v>8.60211041883187</v>
+        <v>8.496071656115037</v>
       </c>
       <c r="F25">
-        <v>26.17760987850841</v>
+        <v>25.00947875635594</v>
       </c>
       <c r="G25">
-        <v>34.82573156515557</v>
+        <v>32.34806012073431</v>
       </c>
       <c r="H25">
-        <v>2.688543804034273</v>
+        <v>2.564671408195073</v>
       </c>
       <c r="I25">
-        <v>4.615738556606883</v>
+        <v>4.417578177362897</v>
       </c>
       <c r="J25">
-        <v>10.53886781811205</v>
+        <v>10.60690221468026</v>
       </c>
       <c r="K25">
-        <v>18.98788801318039</v>
+        <v>17.47075473374716</v>
       </c>
       <c r="L25">
-        <v>6.285642332152985</v>
+        <v>15.0605499015004</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.53288757843857</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.218372608479132</v>
       </c>
       <c r="O25">
-        <v>30.01839693152892</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>21.17195680097847</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>19.31185251378921</v>
+        <v>29.48761314046574</v>
+      </c>
+      <c r="R25">
+        <v>21.29336586803787</v>
+      </c>
+      <c r="S25">
+        <v>18.27816044011324</v>
       </c>
     </row>
   </sheetData>
